--- a/Tamanna  xlsx.xlsx
+++ b/Tamanna  xlsx.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{A2C263BC-D665-DB44-9A8C-59C6C4E1962B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user2\Documents\Gaming-main\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59930101-4506-4650-B0E2-5CAEB2F55426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="9060" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="part 2 question 2" sheetId="2" r:id="rId1"/>
@@ -361,7 +366,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -681,7 +686,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -706,7 +711,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
@@ -727,12 +731,8 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -748,26 +748,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -776,21 +773,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -853,10 +847,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -868,7 +862,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -909,7 +903,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1070,7 +1064,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1249,7 +1243,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1385,7 +1379,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1576,7 +1570,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1780,7 +1774,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>8750000</c:v>
+                  <c:v>12750000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9920000</c:v>
@@ -1792,7 +1786,7 @@
                   <c:v>7957400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9876500</c:v>
+                  <c:v>4154121</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5164500</c:v>
@@ -2001,7 +1995,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2225,7 +2219,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>8750000</c:v>
+                  <c:v>12750000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9920000</c:v>
@@ -2237,7 +2231,7 @@
                   <c:v>7957400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9876500</c:v>
+                  <c:v>4154121</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5164500</c:v>
@@ -5345,24 +5339,24 @@
       <selection activeCell="K118" sqref="K118:M124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.52734375" customWidth="1"/>
-    <col min="2" max="2" width="10.76171875" customWidth="1"/>
-    <col min="3" max="3" width="10.22265625" customWidth="1"/>
-    <col min="4" max="4" width="10.76171875" customWidth="1"/>
-    <col min="5" max="5" width="10.4921875" customWidth="1"/>
-    <col min="7" max="7" width="14.796875" customWidth="1"/>
-    <col min="8" max="8" width="12.9140625" customWidth="1"/>
-    <col min="11" max="11" width="9.14453125" customWidth="1"/>
-    <col min="12" max="12" width="15.6015625" customWidth="1"/>
-    <col min="13" max="13" width="13.1796875" customWidth="1"/>
-    <col min="14" max="14" width="11.02734375" customWidth="1"/>
-    <col min="15" max="15" width="10.76171875" customWidth="1"/>
-    <col min="16" max="16" width="10.89453125" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -5372,12 +5366,12 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:16">
+      <c r="A2" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -5385,10 +5379,10 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
+    <row r="3" spans="1:16">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -5396,7 +5390,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -5406,44 +5400,44 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="50" t="s">
+    <row r="5" spans="1:16">
+      <c r="A5" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="25"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="22"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="50"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-    </row>
-    <row r="7" spans="1:16" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+    </row>
+    <row r="7" spans="1:16" ht="45">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -5467,14 +5461,14 @@
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-    </row>
-    <row r="8" spans="1:16" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+    </row>
+    <row r="8" spans="1:16" ht="30">
       <c r="A8" s="2">
         <v>45296</v>
       </c>
@@ -5499,14 +5493,14 @@
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="K8" s="18"/>
+      <c r="K8" s="17"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16">
       <c r="A9" s="2">
         <v>45297</v>
       </c>
@@ -5538,7 +5532,7 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:16" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="30">
       <c r="A10" s="2">
         <v>45298</v>
       </c>
@@ -5570,7 +5564,7 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="1:16" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="30">
       <c r="A11" s="2">
         <v>45299</v>
       </c>
@@ -5602,7 +5596,7 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16">
       <c r="A12" s="2">
         <v>45300</v>
       </c>
@@ -5634,7 +5628,7 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
     </row>
-    <row r="13" spans="1:16" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="30">
       <c r="A13" s="2">
         <v>45301</v>
       </c>
@@ -5666,7 +5660,7 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
     </row>
-    <row r="14" spans="1:16" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="30">
       <c r="A14" s="2">
         <v>45302</v>
       </c>
@@ -5698,7 +5692,7 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
     </row>
-    <row r="15" spans="1:16" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="30">
       <c r="A15" s="2">
         <v>45303</v>
       </c>
@@ -5724,7 +5718,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:16" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="30">
       <c r="A16" s="2">
         <v>45304</v>
       </c>
@@ -5749,12 +5743,12 @@
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="22"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="19"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:13" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="30">
       <c r="A17" s="2">
         <v>45305</v>
       </c>
@@ -5779,11 +5773,11 @@
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="20"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="18"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="14.45" customHeight="1">
       <c r="A18" s="2">
         <v>45306</v>
       </c>
@@ -5808,9 +5802,8 @@
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="L18" s="19"/>
-    </row>
-    <row r="19" spans="1:13" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:13" ht="29.1" customHeight="1">
       <c r="A19" s="2">
         <v>45307</v>
       </c>
@@ -5835,9 +5828,8 @@
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="L19" s="19"/>
-    </row>
-    <row r="20" spans="1:13" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:13" ht="29.1" customHeight="1">
       <c r="A20" s="2">
         <v>45308</v>
       </c>
@@ -5862,9 +5854,8 @@
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="L20" s="19"/>
-    </row>
-    <row r="21" spans="1:13" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:13" ht="29.1" customHeight="1">
       <c r="A21" s="2">
         <v>45309</v>
       </c>
@@ -5889,9 +5880,8 @@
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="L21" s="19"/>
-    </row>
-    <row r="22" spans="1:13" ht="27.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:13" ht="30">
       <c r="A22" s="2">
         <v>45310</v>
       </c>
@@ -5917,7 +5907,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:13" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="30">
       <c r="A23" s="2">
         <v>45311</v>
       </c>
@@ -5943,7 +5933,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="30">
       <c r="A24" s="2">
         <v>45312</v>
       </c>
@@ -5969,7 +5959,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" s="2">
         <v>45313</v>
       </c>
@@ -5995,7 +5985,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:13" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="30">
       <c r="A26" s="2">
         <v>45314</v>
       </c>
@@ -6021,7 +6011,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:13" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="30">
       <c r="A27" s="2">
         <v>45315</v>
       </c>
@@ -6047,7 +6037,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:13" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="30">
       <c r="A28" s="2">
         <v>45316</v>
       </c>
@@ -6073,7 +6063,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:13" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="30">
       <c r="A29" s="2">
         <v>45317</v>
       </c>
@@ -6098,11 +6088,11 @@
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="22"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="19"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="14.45" customHeight="1">
       <c r="A30" s="2">
         <v>45318</v>
       </c>
@@ -6128,7 +6118,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:13" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="29.1" customHeight="1">
       <c r="A31" s="2">
         <v>45319</v>
       </c>
@@ -6154,7 +6144,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:13" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="29.1" customHeight="1">
       <c r="A32" s="2">
         <v>45320</v>
       </c>
@@ -6180,7 +6170,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="14.45" customHeight="1">
       <c r="A33" s="2">
         <v>45323</v>
       </c>
@@ -6206,7 +6196,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:13" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="29.1" customHeight="1">
       <c r="A34" s="2">
         <v>45324</v>
       </c>
@@ -6232,7 +6222,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:13" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="29.1" customHeight="1">
       <c r="A35" s="2">
         <v>45325</v>
       </c>
@@ -6258,7 +6248,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:13" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="30">
       <c r="A36" s="2">
         <v>45326</v>
       </c>
@@ -6283,11 +6273,11 @@
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="22"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="19"/>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="14.45" customHeight="1">
       <c r="A37" s="2">
         <v>45327</v>
       </c>
@@ -6313,7 +6303,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="1:13" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" ht="29.1" customHeight="1">
       <c r="A38" s="2">
         <v>45328</v>
       </c>
@@ -6339,7 +6329,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" s="2">
         <v>45329</v>
       </c>
@@ -6365,7 +6355,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="1:13" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="30">
       <c r="A40" s="2">
         <v>45330</v>
       </c>
@@ -6391,7 +6381,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="1:13" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" ht="30">
       <c r="A41" s="2">
         <v>45331</v>
       </c>
@@ -6417,7 +6407,7 @@
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="1:13" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" ht="30">
       <c r="A42" s="2">
         <v>45332</v>
       </c>
@@ -6443,7 +6433,7 @@
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:13" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="30">
       <c r="A43" s="2">
         <v>45333</v>
       </c>
@@ -6468,11 +6458,11 @@
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="22"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="19"/>
       <c r="M43" s="3"/>
     </row>
-    <row r="44" spans="1:13" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" ht="30">
       <c r="A44" s="2">
         <v>45334</v>
       </c>
@@ -6497,11 +6487,11 @@
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="22"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="19"/>
       <c r="M44" s="3"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13">
       <c r="A45" s="2">
         <v>45335</v>
       </c>
@@ -6527,7 +6517,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="1:13" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" ht="30">
       <c r="A46" s="2">
         <v>45336</v>
       </c>
@@ -6553,7 +6543,7 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" spans="1:13" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="30">
       <c r="A47" s="2">
         <v>45337</v>
       </c>
@@ -6579,7 +6569,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" ht="30">
       <c r="A48" s="2">
         <v>45338</v>
       </c>
@@ -6605,7 +6595,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
     </row>
-    <row r="49" spans="1:12" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="30">
       <c r="A49" s="2">
         <v>45339</v>
       </c>
@@ -6631,7 +6621,7 @@
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
     </row>
-    <row r="50" spans="1:12" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="30">
       <c r="A50" s="2">
         <v>45340</v>
       </c>
@@ -6657,7 +6647,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
     </row>
-    <row r="51" spans="1:12" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="30">
       <c r="A51" s="2">
         <v>45341</v>
       </c>
@@ -6683,7 +6673,7 @@
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" ht="30">
       <c r="A52" s="2">
         <v>45342</v>
       </c>
@@ -6709,7 +6699,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="1:12" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" ht="30">
       <c r="A53" s="2">
         <v>45343</v>
       </c>
@@ -6735,7 +6725,7 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="1:12" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" ht="30">
       <c r="A54" s="2">
         <v>45344</v>
       </c>
@@ -6761,7 +6751,7 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="1:12" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="30">
       <c r="A55" s="2">
         <v>45345</v>
       </c>
@@ -6787,7 +6777,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
     </row>
-    <row r="56" spans="1:12" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="30">
       <c r="A56" s="2">
         <v>45346</v>
       </c>
@@ -6812,9 +6802,9 @@
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
-      <c r="L56" s="23"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L56" s="20"/>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="2">
         <v>45347</v>
       </c>
@@ -6840,7 +6830,7 @@
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
     </row>
-    <row r="58" spans="1:12" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" ht="30">
       <c r="A58" s="2">
         <v>45352</v>
       </c>
@@ -6866,7 +6856,7 @@
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
     </row>
-    <row r="59" spans="1:12" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" ht="30">
       <c r="A59" s="2">
         <v>45353</v>
       </c>
@@ -6892,7 +6882,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12">
       <c r="A60" s="2">
         <v>45354</v>
       </c>
@@ -6918,7 +6908,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
     </row>
-    <row r="61" spans="1:12" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" ht="30">
       <c r="A61" s="2">
         <v>45355</v>
       </c>
@@ -6944,7 +6934,7 @@
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12">
       <c r="A62" s="2">
         <v>45356</v>
       </c>
@@ -6970,7 +6960,7 @@
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
     </row>
-    <row r="63" spans="1:12" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" ht="30">
       <c r="A63" s="2">
         <v>45357</v>
       </c>
@@ -6996,7 +6986,7 @@
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
     </row>
-    <row r="64" spans="1:12" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" ht="30">
       <c r="A64" s="2">
         <v>45358</v>
       </c>
@@ -7022,7 +7012,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
     </row>
-    <row r="65" spans="1:9" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="30">
       <c r="A65" s="2">
         <v>45359</v>
       </c>
@@ -7048,7 +7038,7 @@
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
     </row>
-    <row r="66" spans="1:9" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="30">
       <c r="A66" s="2">
         <v>45360</v>
       </c>
@@ -7074,7 +7064,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
     </row>
-    <row r="67" spans="1:9" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="30">
       <c r="A67" s="2">
         <v>45361</v>
       </c>
@@ -7100,7 +7090,7 @@
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9">
       <c r="A68" s="2">
         <v>45362</v>
       </c>
@@ -7126,7 +7116,7 @@
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
     </row>
-    <row r="69" spans="1:9" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="30">
       <c r="A69" s="2">
         <v>45363</v>
       </c>
@@ -7152,7 +7142,7 @@
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
     </row>
-    <row r="70" spans="1:9" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="30">
       <c r="A70" s="2">
         <v>45364</v>
       </c>
@@ -7178,7 +7168,7 @@
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9">
       <c r="A71" s="2">
         <v>45365</v>
       </c>
@@ -7204,7 +7194,7 @@
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
     </row>
-    <row r="72" spans="1:9" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="30">
       <c r="A72" s="2">
         <v>45366</v>
       </c>
@@ -7230,7 +7220,7 @@
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
     </row>
-    <row r="73" spans="1:9" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="30">
       <c r="A73" s="2">
         <v>45367</v>
       </c>
@@ -7256,7 +7246,7 @@
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
     </row>
-    <row r="74" spans="1:9" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="30">
       <c r="A74" s="2">
         <v>45368</v>
       </c>
@@ -7282,7 +7272,7 @@
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9">
       <c r="A75" s="2">
         <v>45369</v>
       </c>
@@ -7308,7 +7298,7 @@
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
     </row>
-    <row r="76" spans="1:9" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="30">
       <c r="A76" s="2">
         <v>45370</v>
       </c>
@@ -7334,7 +7324,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
     </row>
-    <row r="77" spans="1:9" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="30">
       <c r="A77" s="2">
         <v>45371</v>
       </c>
@@ -7360,7 +7350,7 @@
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9">
       <c r="A78" s="2">
         <v>45372</v>
       </c>
@@ -7386,7 +7376,7 @@
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
     </row>
-    <row r="79" spans="1:9" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="30">
       <c r="A79" s="2">
         <v>45373</v>
       </c>
@@ -7412,7 +7402,7 @@
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
     </row>
-    <row r="80" spans="1:9" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="30">
       <c r="A80" s="2">
         <v>45374</v>
       </c>
@@ -7438,7 +7428,7 @@
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
     </row>
-    <row r="81" spans="1:9" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="30">
       <c r="A81" s="2">
         <v>45375</v>
       </c>
@@ -7464,7 +7454,7 @@
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
     </row>
-    <row r="82" spans="1:9" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="30">
       <c r="A82" s="2">
         <v>45376</v>
       </c>
@@ -7490,7 +7480,7 @@
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
     </row>
-    <row r="83" spans="1:9" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="30">
       <c r="A83" s="2">
         <v>45381</v>
       </c>
@@ -7516,404 +7506,384 @@
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
     </row>
-    <row r="85" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="86" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="89" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="90" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="61" t="s">
+    <row r="90" spans="1:9">
+      <c r="A90" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="B90" s="61"/>
-      <c r="C90" s="61"/>
-      <c r="D90" s="61"/>
-      <c r="E90" s="61"/>
-      <c r="F90" s="61"/>
-    </row>
-    <row r="91" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="62" t="s">
+      <c r="B90" s="56"/>
+      <c r="C90" s="56"/>
+      <c r="D90" s="56"/>
+      <c r="E90" s="56"/>
+      <c r="F90" s="56"/>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="B91" s="62"/>
-      <c r="C91" s="62"/>
-      <c r="D91" s="62"/>
-      <c r="E91" s="62"/>
-      <c r="F91" s="62"/>
-    </row>
-    <row r="92" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="29" t="s">
+      <c r="B91" s="57"/>
+      <c r="C91" s="57"/>
+      <c r="D91" s="57"/>
+      <c r="E91" s="57"/>
+      <c r="F91" s="57"/>
+    </row>
+    <row r="92" spans="1:9" ht="18.75">
+      <c r="A92" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B92" s="30" t="s">
+      <c r="B92" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C92" s="30" t="s">
+      <c r="C92" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D92" s="32" t="s">
+      <c r="D92" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="E92" s="32" t="s">
+      <c r="E92" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="F92" s="32" t="s">
+      <c r="F92" s="28" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="19" customFormat="1" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="28">
+    <row r="93" spans="1:9" ht="30">
+      <c r="A93" s="18">
         <v>1</v>
       </c>
-      <c r="B93" s="27" t="s">
+      <c r="B93" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C93" s="26">
+      <c r="C93" s="23">
         <v>30000</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="28">
+    <row r="94" spans="1:9" ht="30">
+      <c r="A94" s="18">
         <v>2</v>
       </c>
-      <c r="B94" s="27" t="s">
+      <c r="B94" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C94" s="26">
+      <c r="C94" s="23">
         <v>30000</v>
       </c>
     </row>
-    <row r="95" spans="1:9" s="19" customFormat="1" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A95" s="28">
+    <row r="95" spans="1:9" ht="30">
+      <c r="A95" s="18">
         <v>3</v>
       </c>
-      <c r="B95" s="27" t="s">
+      <c r="B95" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C95" s="26">
+      <c r="C95" s="23">
         <v>30000</v>
       </c>
     </row>
-    <row r="96" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="28">
+    <row r="96" spans="1:9">
+      <c r="A96" s="18">
         <v>4</v>
       </c>
-      <c r="B96" s="27" t="s">
+      <c r="B96" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C96" s="26">
+      <c r="C96" s="23">
         <v>30000</v>
       </c>
     </row>
-    <row r="97" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="28">
+    <row r="97" spans="1:3">
+      <c r="A97" s="18">
         <v>5</v>
       </c>
-      <c r="B97" s="26" t="s">
+      <c r="B97" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C97" s="26">
+      <c r="C97" s="23">
         <v>30000</v>
       </c>
     </row>
-    <row r="98" spans="1:3" s="19" customFormat="1" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="28">
+    <row r="98" spans="1:3" ht="30">
+      <c r="A98" s="18">
         <v>6</v>
       </c>
-      <c r="B98" s="27" t="s">
+      <c r="B98" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C98" s="26">
+      <c r="C98" s="23">
         <v>30000</v>
       </c>
     </row>
-    <row r="99" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="101" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="103" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="104" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="105" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="106" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="107" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="108" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="111" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="113" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A115" s="52" t="s">
+    <row r="115" spans="1:13">
+      <c r="A115" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B115" s="53"/>
-      <c r="C115" s="53"/>
-      <c r="D115" s="53"/>
-      <c r="E115" s="53"/>
-      <c r="F115" s="53"/>
-      <c r="G115" s="53"/>
-      <c r="H115" s="54"/>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A116" s="55"/>
-      <c r="B116" s="56"/>
-      <c r="C116" s="56"/>
-      <c r="D116" s="56"/>
-      <c r="E116" s="56"/>
-      <c r="F116" s="56"/>
-      <c r="G116" s="56"/>
-      <c r="H116" s="57"/>
-    </row>
-    <row r="117" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="58" t="s">
+      <c r="B115" s="48"/>
+      <c r="C115" s="48"/>
+      <c r="D115" s="48"/>
+      <c r="E115" s="48"/>
+      <c r="F115" s="48"/>
+      <c r="G115" s="48"/>
+      <c r="H115" s="49"/>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="A116" s="50"/>
+      <c r="B116" s="51"/>
+      <c r="C116" s="51"/>
+      <c r="D116" s="51"/>
+      <c r="E116" s="51"/>
+      <c r="F116" s="51"/>
+      <c r="G116" s="51"/>
+      <c r="H116" s="52"/>
+    </row>
+    <row r="117" spans="1:13" ht="18.75">
+      <c r="A117" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="B117" s="59"/>
-      <c r="C117" s="59"/>
-      <c r="D117" s="59"/>
-      <c r="E117" s="59"/>
-      <c r="F117" s="59"/>
-      <c r="G117" s="59"/>
-      <c r="H117" s="60"/>
-    </row>
-    <row r="118" spans="1:13" ht="35.25" x14ac:dyDescent="0.25">
-      <c r="A118" s="29" t="s">
+      <c r="B117" s="54"/>
+      <c r="C117" s="54"/>
+      <c r="D117" s="54"/>
+      <c r="E117" s="54"/>
+      <c r="F117" s="54"/>
+      <c r="G117" s="54"/>
+      <c r="H117" s="55"/>
+    </row>
+    <row r="118" spans="1:13" ht="37.5">
+      <c r="A118" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B118" s="30" t="s">
+      <c r="B118" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C118" s="30" t="s">
+      <c r="C118" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D118" s="30" t="s">
+      <c r="D118" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="E118" s="30" t="s">
+      <c r="E118" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="F118" s="30" t="s">
+      <c r="F118" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G118" s="31" t="s">
+      <c r="G118" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="H118" s="31" t="s">
+      <c r="H118" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="K118" s="29" t="s">
+      <c r="K118" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="L118" s="30" t="s">
+      <c r="L118" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="M118" s="32" t="s">
+      <c r="M118" s="28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="28">
+    <row r="119" spans="1:13" ht="21.6" customHeight="1">
+      <c r="A119" s="18">
         <v>1</v>
       </c>
-      <c r="B119" s="27" t="s">
+      <c r="B119" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C119" s="26">
+      <c r="C119" s="23">
         <v>30000</v>
       </c>
-      <c r="D119" s="26">
+      <c r="D119" s="23">
         <f>SUMIF(C8:C83,C8,G8:G83)</f>
         <v>5130000</v>
       </c>
-      <c r="E119" s="26">
+      <c r="E119" s="23">
         <f t="shared" ref="E119:E124" si="2">IF(D119&gt;=2000000,D119*10%,IF(D119&gt;=1000000,D119*8%,IF(D119&lt;2000000,D119*8%,IF(D119&lt;1000000,D119*6%))))</f>
         <v>513000</v>
       </c>
-      <c r="F119" s="26">
+      <c r="F119" s="23">
         <f t="shared" ref="F119:F124" si="3">SUM(C119+E119)</f>
         <v>543000</v>
       </c>
-      <c r="G119" s="26"/>
-      <c r="H119" s="51">
+      <c r="G119" s="23"/>
+      <c r="H119" s="46">
         <f>AVERAGE(F119:F124)</f>
         <v>507833.33333333331</v>
       </c>
-      <c r="K119" s="28">
+      <c r="K119" s="18">
         <v>1</v>
       </c>
-      <c r="L119" s="27" t="s">
+      <c r="L119" s="24" t="s">
         <v>39</v>
       </c>
       <c r="M119">
         <v>543000</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="28">
+    <row r="120" spans="1:13" ht="23.1" customHeight="1">
+      <c r="A120" s="18">
         <v>2</v>
       </c>
-      <c r="B120" s="26" t="s">
+      <c r="B120" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C120" s="26">
+      <c r="C120" s="23">
         <v>30000</v>
       </c>
-      <c r="D120" s="26">
+      <c r="D120" s="23">
         <f>SUMIF(C9:C84,C9,G9:G84)</f>
         <v>2390000</v>
       </c>
-      <c r="E120" s="26">
+      <c r="E120" s="23">
         <f t="shared" si="2"/>
         <v>239000</v>
       </c>
-      <c r="F120" s="26">
+      <c r="F120" s="23">
         <f t="shared" si="3"/>
         <v>269000</v>
       </c>
-      <c r="G120" s="26"/>
-      <c r="H120" s="51"/>
-      <c r="K120" s="28">
+      <c r="G120" s="23"/>
+      <c r="H120" s="46"/>
+      <c r="K120" s="18">
         <v>2</v>
       </c>
-      <c r="L120" s="26" t="s">
+      <c r="L120" s="23" t="s">
         <v>40</v>
       </c>
       <c r="M120">
         <v>269000</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="28">
+    <row r="121" spans="1:13" ht="26.1" customHeight="1">
+      <c r="A121" s="18">
         <v>3</v>
       </c>
-      <c r="B121" s="27" t="s">
+      <c r="B121" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C121" s="26">
+      <c r="C121" s="23">
         <v>30000</v>
       </c>
-      <c r="D121" s="26">
+      <c r="D121" s="23">
         <f>SUMIF(C10:C114,C10,G10:G114)</f>
         <v>4710000</v>
       </c>
-      <c r="E121" s="26">
+      <c r="E121" s="23">
         <f t="shared" si="2"/>
         <v>471000</v>
       </c>
-      <c r="F121" s="26">
+      <c r="F121" s="23">
         <f t="shared" si="3"/>
         <v>501000</v>
       </c>
-      <c r="G121" s="26"/>
-      <c r="H121" s="51"/>
-      <c r="K121" s="28">
+      <c r="G121" s="23"/>
+      <c r="H121" s="46"/>
+      <c r="K121" s="18">
         <v>3</v>
       </c>
-      <c r="L121" s="27" t="s">
+      <c r="L121" s="24" t="s">
         <v>41</v>
       </c>
       <c r="M121">
         <v>501000</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A122" s="28">
+    <row r="122" spans="1:13" ht="30">
+      <c r="A122" s="18">
         <v>4</v>
       </c>
-      <c r="B122" s="27" t="s">
+      <c r="B122" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C122" s="26">
+      <c r="C122" s="23">
         <v>30000</v>
       </c>
-      <c r="D122" s="26">
+      <c r="D122" s="23">
         <f>SUMIF(C11:C115,C11,G11:G115)</f>
         <v>6930000</v>
       </c>
-      <c r="E122" s="26">
+      <c r="E122" s="23">
         <f t="shared" si="2"/>
         <v>693000</v>
       </c>
-      <c r="F122" s="26">
+      <c r="F122" s="23">
         <f t="shared" si="3"/>
         <v>723000</v>
       </c>
-      <c r="G122" s="26">
+      <c r="G122" s="23">
         <v>723000</v>
       </c>
-      <c r="H122" s="51"/>
-      <c r="K122" s="28">
+      <c r="H122" s="46"/>
+      <c r="K122" s="18">
         <v>4</v>
       </c>
-      <c r="L122" s="27" t="s">
+      <c r="L122" s="24" t="s">
         <v>42</v>
       </c>
       <c r="M122">
         <v>723000</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="28">
+    <row r="123" spans="1:13" ht="26.1" customHeight="1">
+      <c r="A123" s="18">
         <v>5</v>
       </c>
-      <c r="B123" s="27" t="s">
+      <c r="B123" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C123" s="26">
+      <c r="C123" s="23">
         <v>30000</v>
       </c>
-      <c r="D123" s="26">
+      <c r="D123" s="23">
         <f>SUMIF(C12:C116,C12,G12:G116)</f>
         <v>4190000</v>
       </c>
-      <c r="E123" s="26">
+      <c r="E123" s="23">
         <f t="shared" si="2"/>
         <v>419000</v>
       </c>
-      <c r="F123" s="26">
+      <c r="F123" s="23">
         <f t="shared" si="3"/>
         <v>449000</v>
       </c>
-      <c r="G123" s="26"/>
-      <c r="H123" s="51"/>
-      <c r="K123" s="28">
+      <c r="G123" s="23"/>
+      <c r="H123" s="46"/>
+      <c r="K123" s="18">
         <v>5</v>
       </c>
-      <c r="L123" s="27" t="s">
+      <c r="L123" s="24" t="s">
         <v>43</v>
       </c>
       <c r="M123">
         <v>449000</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A124" s="28">
+    <row r="124" spans="1:13" ht="30">
+      <c r="A124" s="18">
         <v>6</v>
       </c>
-      <c r="B124" s="27" t="s">
+      <c r="B124" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C124" s="26">
+      <c r="C124" s="23">
         <v>30000</v>
       </c>
-      <c r="D124" s="26">
+      <c r="D124" s="23">
         <f>SUMIF(C13:C117,C13,G13:G117)</f>
         <v>5320000</v>
       </c>
-      <c r="E124" s="26">
+      <c r="E124" s="23">
         <f t="shared" si="2"/>
         <v>532000</v>
       </c>
-      <c r="F124" s="26">
+      <c r="F124" s="23">
         <f t="shared" si="3"/>
         <v>562000</v>
       </c>
-      <c r="G124" s="26"/>
-      <c r="H124" s="51"/>
-      <c r="K124" s="28">
+      <c r="G124" s="23"/>
+      <c r="H124" s="46"/>
+      <c r="K124" s="18">
         <v>6</v>
       </c>
-      <c r="L124" s="27" t="s">
+      <c r="L124" s="24" t="s">
         <v>44</v>
       </c>
       <c r="M124">
@@ -7950,18 +7920,18 @@
       <selection sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="2" max="2" width="21.38671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
         <v>27</v>
       </c>
@@ -7969,43 +7939,43 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4">
         <v>6950000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5">
         <v>12250000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6">
         <v>6150000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7">
         <v>3320000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8">
         <v>28670000</v>
       </c>
     </row>
@@ -8020,13 +7990,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.38671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
         <v>27</v>
       </c>
@@ -8034,43 +8004,43 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2">
         <v>6950000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3">
         <v>12250000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4">
         <v>6150000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5">
         <v>3320000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6">
         <v>28670000</v>
       </c>
     </row>
@@ -8088,15 +8058,15 @@
       <selection activeCell="A3" sqref="A3:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.62109375" customWidth="1"/>
-    <col min="2" max="2" width="14.52734375" customWidth="1"/>
-    <col min="3" max="3" width="20.4453125" customWidth="1"/>
-    <col min="4" max="4" width="21.38671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
         <v>27</v>
       </c>
@@ -8110,129 +8080,129 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4">
         <v>42</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4">
         <v>90000</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4">
         <v>1260000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5">
         <v>42</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5">
         <v>90000</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5">
         <v>1260000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
+    <row r="6" spans="1:4">
+      <c r="A6" s="11">
         <v>45326</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6">
         <v>20</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6">
         <v>30000</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6">
         <v>600000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7">
         <v>20</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7">
         <v>30000</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7">
         <v>600000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
+    <row r="8" spans="1:4">
+      <c r="A8" s="11">
         <v>45334</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8">
         <v>10</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8">
         <v>30000</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8">
         <v>300000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9">
         <v>10</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9">
         <v>30000</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9">
         <v>300000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
+    <row r="10" spans="1:4">
+      <c r="A10" s="11">
         <v>45346</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10">
         <v>12</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10">
         <v>30000</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10">
         <v>360000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11">
         <v>12</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11">
         <v>30000</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11">
         <v>360000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12">
         <v>42</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12">
         <v>90000</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12">
         <v>1260000</v>
       </c>
     </row>
@@ -8257,59 +8227,59 @@
       <selection activeCell="A5" sqref="A5:G83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="2" max="2" width="17.62109375" customWidth="1"/>
-    <col min="3" max="3" width="14.52734375" customWidth="1"/>
-    <col min="4" max="4" width="20.4453125" customWidth="1"/>
-    <col min="5" max="5" width="21.38671875" customWidth="1"/>
-    <col min="7" max="7" width="14.796875" customWidth="1"/>
-    <col min="9" max="9" width="11.296875" customWidth="1"/>
-    <col min="10" max="10" width="11.97265625" customWidth="1"/>
-    <col min="11" max="11" width="12.64453125" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A1" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-    </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-    </row>
-    <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+    </row>
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1">
+      <c r="A3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="15"/>
-    </row>
-    <row r="4" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="50" t="s">
+      <c r="B3" s="14"/>
+    </row>
+    <row r="4" spans="1:7" ht="21.6" customHeight="1"/>
+    <row r="5" spans="1:7">
+      <c r="A5" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="50"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-    </row>
-    <row r="7" spans="1:7" ht="41.25" x14ac:dyDescent="0.2">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+    </row>
+    <row r="7" spans="1:7" ht="45">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -8332,7 +8302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>45296</v>
       </c>
@@ -8356,7 +8326,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>45297</v>
       </c>
@@ -8380,7 +8350,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="2">
         <v>45298</v>
       </c>
@@ -8404,7 +8374,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>45299</v>
       </c>
@@ -8428,7 +8398,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>45300</v>
       </c>
@@ -8452,7 +8422,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>45301</v>
       </c>
@@ -8476,7 +8446,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="2">
         <v>45302</v>
       </c>
@@ -8500,7 +8470,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>45303</v>
       </c>
@@ -8524,7 +8494,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="2">
         <v>45304</v>
       </c>
@@ -8548,7 +8518,7 @@
         <v>560000</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="2">
         <v>45305</v>
       </c>
@@ -8572,7 +8542,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="2">
         <v>45306</v>
       </c>
@@ -8596,7 +8566,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="2">
         <v>45307</v>
       </c>
@@ -8620,7 +8590,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="2">
         <v>45308</v>
       </c>
@@ -8644,7 +8614,7 @@
         <v>770000</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="2">
         <v>45309</v>
       </c>
@@ -8668,7 +8638,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="2">
         <v>45310</v>
       </c>
@@ -8692,7 +8662,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="2">
         <v>45311</v>
       </c>
@@ -8716,7 +8686,7 @@
         <v>390000</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="2">
         <v>45312</v>
       </c>
@@ -8740,7 +8710,7 @@
         <v>630000</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="2">
         <v>45313</v>
       </c>
@@ -8764,7 +8734,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="2">
         <v>45314</v>
       </c>
@@ -8788,7 +8758,7 @@
         <v>280000</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="2">
         <v>45315</v>
       </c>
@@ -8812,7 +8782,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="2">
         <v>45316</v>
       </c>
@@ -8836,7 +8806,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="2">
         <v>45317</v>
       </c>
@@ -8860,7 +8830,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="2">
         <v>45318</v>
       </c>
@@ -8884,7 +8854,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="2">
         <v>45319</v>
       </c>
@@ -8908,7 +8878,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="2">
         <v>45320</v>
       </c>
@@ -8932,7 +8902,7 @@
         <v>490000</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11">
       <c r="A33" s="2">
         <v>45323</v>
       </c>
@@ -8956,7 +8926,7 @@
         <v>560000</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
       <c r="A34" s="2">
         <v>45324</v>
       </c>
@@ -8980,7 +8950,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11">
       <c r="A35" s="2">
         <v>45325</v>
       </c>
@@ -9004,7 +8974,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11">
       <c r="A36" s="2">
         <v>45326</v>
       </c>
@@ -9028,7 +8998,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11">
       <c r="A37" s="2">
         <v>45327</v>
       </c>
@@ -9052,7 +9022,7 @@
         <v>280000</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11">
       <c r="A38" s="2">
         <v>45328</v>
       </c>
@@ -9076,7 +9046,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11">
       <c r="A39" s="2">
         <v>45329</v>
       </c>
@@ -9100,7 +9070,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11">
       <c r="A40" s="2">
         <v>45330</v>
       </c>
@@ -9124,7 +9094,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11">
       <c r="A41" s="2">
         <v>45331</v>
       </c>
@@ -9148,7 +9118,7 @@
         <v>490000</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11">
       <c r="A42" s="2">
         <v>45332</v>
       </c>
@@ -9172,7 +9142,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11">
       <c r="A43" s="2">
         <v>45333</v>
       </c>
@@ -9196,7 +9166,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11">
       <c r="A44" s="2">
         <v>45334</v>
       </c>
@@ -9220,7 +9190,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="15.75">
       <c r="A45" s="2">
         <v>45335</v>
       </c>
@@ -9243,12 +9213,12 @@
         <f t="shared" si="0"/>
         <v>630000</v>
       </c>
-      <c r="I45" s="15" t="s">
+      <c r="I45" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J45" s="15"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J45" s="14"/>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="2">
         <v>45336</v>
       </c>
@@ -9272,7 +9242,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11">
       <c r="A47" s="2">
         <v>45337</v>
       </c>
@@ -9302,7 +9272,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11">
       <c r="A48" s="2">
         <v>45338</v>
       </c>
@@ -9333,7 +9303,7 @@
         <v>5010000</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11">
       <c r="A49" s="2">
         <v>45339</v>
       </c>
@@ -9364,7 +9334,7 @@
         <v>4340000</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11">
       <c r="A50" s="2">
         <v>45340</v>
       </c>
@@ -9395,7 +9365,7 @@
         <v>5850000</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11">
       <c r="A51" s="2">
         <v>45341</v>
       </c>
@@ -9426,7 +9396,7 @@
         <v>4110000</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11">
       <c r="A52" s="2">
         <v>45342</v>
       </c>
@@ -9457,7 +9427,7 @@
         <v>4760000</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11">
       <c r="A53" s="2">
         <v>45343</v>
       </c>
@@ -9488,7 +9458,7 @@
         <v>4600000</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11">
       <c r="A54" s="2">
         <v>45344</v>
       </c>
@@ -9512,7 +9482,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11">
       <c r="A55" s="2">
         <v>45345</v>
       </c>
@@ -9536,7 +9506,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11">
       <c r="A56" s="2">
         <v>45346</v>
       </c>
@@ -9560,7 +9530,7 @@
         <v>360000</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11">
       <c r="A57" s="2">
         <v>45347</v>
       </c>
@@ -9584,7 +9554,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11">
       <c r="A58" s="2">
         <v>45352</v>
       </c>
@@ -9608,7 +9578,7 @@
         <v>840000</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11">
       <c r="A59" s="2">
         <v>45353</v>
       </c>
@@ -9632,7 +9602,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11">
       <c r="A60" s="2">
         <v>45354</v>
       </c>
@@ -9656,7 +9626,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11">
       <c r="A61" s="2">
         <v>45355</v>
       </c>
@@ -9680,7 +9650,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11">
       <c r="A62" s="2">
         <v>45356</v>
       </c>
@@ -9704,7 +9674,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11">
       <c r="A63" s="2">
         <v>45357</v>
       </c>
@@ -9728,7 +9698,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11">
       <c r="A64" s="2">
         <v>45358</v>
       </c>
@@ -9752,7 +9722,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" s="2">
         <v>45359</v>
       </c>
@@ -9776,7 +9746,7 @@
         <v>390000</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" s="2">
         <v>45360</v>
       </c>
@@ -9800,7 +9770,7 @@
         <v>630000</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" s="2">
         <v>45361</v>
       </c>
@@ -9824,7 +9794,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" s="2">
         <v>45362</v>
       </c>
@@ -9848,7 +9818,7 @@
         <v>220000</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" s="2">
         <v>45363</v>
       </c>
@@ -9872,7 +9842,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" s="2">
         <v>45364</v>
       </c>
@@ -9896,7 +9866,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" s="2">
         <v>45365</v>
       </c>
@@ -9920,7 +9890,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72" s="2">
         <v>45366</v>
       </c>
@@ -9944,7 +9914,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73" s="2">
         <v>45367</v>
       </c>
@@ -9968,7 +9938,7 @@
         <v>360000</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74" s="2">
         <v>45368</v>
       </c>
@@ -9992,7 +9962,7 @@
         <v>630000</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75" s="2">
         <v>45369</v>
       </c>
@@ -10016,7 +9986,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="A76" s="2">
         <v>45370</v>
       </c>
@@ -10040,7 +10010,7 @@
         <v>280000</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77" s="2">
         <v>45371</v>
       </c>
@@ -10064,7 +10034,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="A78" s="2">
         <v>45372</v>
       </c>
@@ -10088,7 +10058,7 @@
         <v>770000</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79" s="2">
         <v>45373</v>
       </c>
@@ -10112,7 +10082,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80" s="2">
         <v>45374</v>
       </c>
@@ -10136,7 +10106,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" s="2">
         <v>45375</v>
       </c>
@@ -10160,7 +10130,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" s="2">
         <v>45376</v>
       </c>
@@ -10184,7 +10154,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" s="2">
         <v>45381</v>
       </c>
@@ -10208,7 +10178,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="F84" s="4" t="s">
         <v>24</v>
       </c>
@@ -10217,20 +10187,20 @@
         <v>28670000</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="B88" s="3"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="16" t="s">
+    <row r="89" spans="1:7" ht="15.75">
+      <c r="A89" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B89" s="16"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B89" s="15"/>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="7" t="s">
         <v>27</v>
       </c>
@@ -10238,53 +10208,53 @@
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7">
       <c r="A92" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B92" s="10">
+      <c r="B92">
         <v>6950000</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7">
       <c r="A93" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B93" s="10">
+      <c r="B93">
         <v>12250000</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7">
       <c r="A94" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B94" s="10">
+      <c r="B94">
         <v>6150000</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7">
       <c r="A95" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B95" s="10">
+      <c r="B95">
         <v>3320000</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7">
       <c r="A96" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B96" s="10">
+      <c r="B96">
         <v>28670000</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="16" t="s">
+    <row r="108" spans="1:8" ht="15.75">
+      <c r="A108" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B108" s="16"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B108" s="15"/>
+    </row>
+    <row r="109" spans="1:8">
       <c r="B109" s="7" t="s">
         <v>27</v>
       </c>
@@ -10298,160 +10268,160 @@
         <v>29</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8">
       <c r="B110" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C110" s="10">
+      <c r="C110">
         <v>42</v>
       </c>
-      <c r="D110" s="10">
+      <c r="D110">
         <v>90000</v>
       </c>
-      <c r="E110" s="10">
+      <c r="E110">
         <v>1260000</v>
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8">
       <c r="B111" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C111" s="10">
+      <c r="C111">
         <v>42</v>
       </c>
-      <c r="D111" s="10">
+      <c r="D111">
         <v>90000</v>
       </c>
-      <c r="E111" s="10">
+      <c r="E111">
         <v>1260000</v>
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B112" s="12">
+    <row r="112" spans="1:8">
+      <c r="B112" s="11">
         <v>45326</v>
       </c>
-      <c r="C112" s="10">
+      <c r="C112">
         <v>20</v>
       </c>
-      <c r="D112" s="10">
+      <c r="D112">
         <v>30000</v>
       </c>
-      <c r="E112" s="10">
+      <c r="E112">
         <v>600000</v>
       </c>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B113" s="11" t="s">
+    <row r="113" spans="2:8">
+      <c r="B113" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C113" s="10">
+      <c r="C113">
         <v>20</v>
       </c>
-      <c r="D113" s="10">
+      <c r="D113">
         <v>30000</v>
       </c>
-      <c r="E113" s="10">
+      <c r="E113">
         <v>600000</v>
       </c>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B114" s="12">
+    <row r="114" spans="2:8">
+      <c r="B114" s="11">
         <v>45334</v>
       </c>
-      <c r="C114" s="10">
+      <c r="C114">
         <v>10</v>
       </c>
-      <c r="D114" s="10">
+      <c r="D114">
         <v>30000</v>
       </c>
-      <c r="E114" s="10">
+      <c r="E114">
         <v>300000</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B115" s="11" t="s">
+    <row r="115" spans="2:8">
+      <c r="B115" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C115" s="10">
+      <c r="C115">
         <v>10</v>
       </c>
-      <c r="D115" s="10">
+      <c r="D115">
         <v>30000</v>
       </c>
-      <c r="E115" s="10">
+      <c r="E115">
         <v>300000</v>
       </c>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B116" s="12">
+    <row r="116" spans="2:8">
+      <c r="B116" s="11">
         <v>45346</v>
       </c>
-      <c r="C116" s="10">
+      <c r="C116">
         <v>12</v>
       </c>
-      <c r="D116" s="10">
+      <c r="D116">
         <v>30000</v>
       </c>
-      <c r="E116" s="10">
+      <c r="E116">
         <v>360000</v>
       </c>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B117" s="11" t="s">
+    <row r="117" spans="2:8">
+      <c r="B117" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C117" s="10">
+      <c r="C117">
         <v>12</v>
       </c>
-      <c r="D117" s="10">
+      <c r="D117">
         <v>30000</v>
       </c>
-      <c r="E117" s="10">
+      <c r="E117">
         <v>360000</v>
       </c>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:8">
       <c r="B118" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C118" s="10">
+      <c r="C118">
         <v>42</v>
       </c>
-      <c r="D118" s="10">
+      <c r="D118">
         <v>90000</v>
       </c>
-      <c r="E118" s="10">
+      <c r="E118">
         <v>1260000</v>
       </c>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:8">
       <c r="B119" s="2"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -10460,49 +10430,49 @@
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:8">
       <c r="H120" s="3"/>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:8">
       <c r="H121" s="3"/>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:8">
       <c r="H122" s="3"/>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:8">
       <c r="H123" s="3"/>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:8">
       <c r="H124" s="3"/>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:8">
       <c r="H125" s="3"/>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:8">
       <c r="H126" s="3"/>
     </row>
-    <row r="127" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:8" ht="23.1" customHeight="1">
       <c r="H127" s="3"/>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:8">
       <c r="H128" s="3"/>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:8">
       <c r="H129" s="3"/>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:8">
       <c r="H130" s="3"/>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:8">
       <c r="H131" s="3"/>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:8">
       <c r="H132" s="3"/>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:8">
       <c r="H133" s="3"/>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:8">
       <c r="B134" s="2"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -10511,7 +10481,7 @@
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:8">
       <c r="B135" s="2"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -10520,7 +10490,7 @@
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:8">
       <c r="B136" s="2"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -10529,7 +10499,7 @@
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:8">
       <c r="B137" s="2"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -10538,7 +10508,7 @@
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:8">
       <c r="B138" s="2"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
@@ -10547,7 +10517,7 @@
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:8">
       <c r="B139" s="2"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
@@ -10556,7 +10526,7 @@
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:8">
       <c r="B140" s="2"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
@@ -10565,7 +10535,7 @@
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:8">
       <c r="B141" s="2"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -10574,7 +10544,7 @@
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:8">
       <c r="B142" s="2"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
@@ -10583,7 +10553,7 @@
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:8">
       <c r="B143" s="2"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
@@ -10592,7 +10562,7 @@
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
     </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:8">
       <c r="B144" s="2"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
@@ -10601,7 +10571,7 @@
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
     </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:8">
       <c r="B145" s="2"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -10610,7 +10580,7 @@
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
     </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:8">
       <c r="B146" s="2"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
@@ -10619,7 +10589,7 @@
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
     </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:8">
       <c r="B147" s="2"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -10628,7 +10598,7 @@
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
     </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:8">
       <c r="B148" s="2"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
@@ -10637,7 +10607,7 @@
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
     </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:8">
       <c r="B149" s="2"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
@@ -10646,7 +10616,7 @@
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
     </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:8">
       <c r="B150" s="2"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
@@ -10655,7 +10625,7 @@
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
     </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:8">
       <c r="B151" s="2"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -10664,7 +10634,7 @@
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
     </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:8">
       <c r="B152" s="2"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
@@ -10673,7 +10643,7 @@
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
     </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:8">
       <c r="B153" s="2"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
@@ -10682,7 +10652,7 @@
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
     </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:8">
       <c r="B154" s="2"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
@@ -10691,7 +10661,7 @@
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
     </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:8">
       <c r="B155" s="2"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
@@ -10700,7 +10670,7 @@
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
     </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:8">
       <c r="B156" s="2"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
@@ -10709,7 +10679,7 @@
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
     </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:8">
       <c r="B157" s="2"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
@@ -10718,7 +10688,7 @@
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
     </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:8">
       <c r="B158" s="2"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
@@ -10727,7 +10697,7 @@
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
     </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:8">
       <c r="B159" s="2"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
@@ -10736,7 +10706,7 @@
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
     </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:8">
       <c r="B160" s="2"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
@@ -10745,7 +10715,7 @@
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
     </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:8">
       <c r="B161" s="2"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
@@ -10754,7 +10724,7 @@
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
     </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:8">
       <c r="B162" s="2"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
@@ -10763,7 +10733,7 @@
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
     </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:8">
       <c r="B163" s="2"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
@@ -10772,7 +10742,7 @@
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
     </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:8">
       <c r="B164" s="2"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
@@ -10781,7 +10751,7 @@
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
     </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:8">
       <c r="B165" s="2"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -10790,7 +10760,7 @@
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
     </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:8">
       <c r="B166" s="2"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -10799,7 +10769,7 @@
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
     </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:8">
       <c r="B167" s="2"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -10808,7 +10778,7 @@
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
     </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:8">
       <c r="B168" s="2"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -10817,7 +10787,7 @@
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
     </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:8">
       <c r="B169" s="2"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -10826,7 +10796,7 @@
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
     </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:8">
       <c r="B170" s="2"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
@@ -10835,7 +10805,7 @@
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
     </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:8">
       <c r="B171" s="2"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
@@ -10844,7 +10814,7 @@
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
     </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:8">
       <c r="B172" s="2"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -10853,7 +10823,7 @@
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
     </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:8">
       <c r="B173" s="2"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -10862,7 +10832,7 @@
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
     </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:8">
       <c r="B174" s="2"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -10871,7 +10841,7 @@
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
     </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:8">
       <c r="B175" s="2"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -10880,7 +10850,7 @@
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
     </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:8">
       <c r="B176" s="2"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
@@ -10889,7 +10859,7 @@
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
     </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:8">
       <c r="B177" s="2"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
@@ -10898,7 +10868,7 @@
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
     </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:8">
       <c r="B178" s="2"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
@@ -10907,7 +10877,7 @@
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
     </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:8">
       <c r="B179" s="2"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
@@ -10916,7 +10886,7 @@
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
     </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:8">
       <c r="B180" s="2"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
@@ -10925,7 +10895,7 @@
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
     </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:8">
       <c r="B181" s="2"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
@@ -10934,7 +10904,7 @@
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
     </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:8">
       <c r="B182" s="2"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
@@ -10943,7 +10913,7 @@
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
     </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:8">
       <c r="B183" s="2"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
@@ -10952,7 +10922,7 @@
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
     </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:8">
       <c r="B184" s="2"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
@@ -10961,7 +10931,7 @@
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
     </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:8">
       <c r="B185" s="2"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
@@ -10970,7 +10940,7 @@
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
     </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:8">
       <c r="B186" s="2"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
@@ -10979,7 +10949,7 @@
       <c r="G186" s="3"/>
       <c r="H186" s="3"/>
     </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:8">
       <c r="B187" s="2"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
@@ -11012,2119 +10982,2097 @@
       <selection activeCell="H210" sqref="H210"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.97265625" customWidth="1"/>
-    <col min="2" max="2" width="18.0234375" customWidth="1"/>
-    <col min="3" max="3" width="10.76171875" customWidth="1"/>
-    <col min="4" max="4" width="11.43359375" customWidth="1"/>
-    <col min="5" max="5" width="10.4921875" customWidth="1"/>
-    <col min="6" max="6" width="11.703125" customWidth="1"/>
-    <col min="8" max="8" width="18.4296875" customWidth="1"/>
-    <col min="9" max="9" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-    </row>
-    <row r="3" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="34">
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="30">
         <v>45296</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="31">
         <v>5</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="31">
         <v>70000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="34">
+    <row r="5" spans="1:6">
+      <c r="A5" s="30">
         <v>45297</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="31">
         <v>10</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="31">
         <v>50000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="34">
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="30">
         <v>45298</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="31">
         <v>7</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="31">
         <v>20000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="34">
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="30">
         <v>45299</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="31">
         <v>15</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="31">
         <v>30000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="34">
+    <row r="8" spans="1:6">
+      <c r="A8" s="30">
         <v>45300</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="31">
         <v>3</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="31">
         <v>70000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="34">
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="30">
         <v>45301</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="31">
         <v>6</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="31">
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="34">
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="30">
         <v>45302</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="31">
         <v>4</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="31">
         <v>20000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="34">
+    <row r="11" spans="1:6" ht="30">
+      <c r="A11" s="30">
         <v>45303</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="31">
         <v>10</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="31">
         <v>30000</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="34">
+    <row r="12" spans="1:6" ht="30">
+      <c r="A12" s="30">
         <v>45304</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="31">
         <v>8</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="31">
         <v>70000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="34">
+    <row r="13" spans="1:6" ht="30">
+      <c r="A13" s="30">
         <v>45305</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="31">
         <v>12</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="31">
         <v>50000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="34">
+    <row r="14" spans="1:6">
+      <c r="A14" s="30">
         <v>45306</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="31">
         <v>9</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="31">
         <v>20000</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="34">
+    <row r="15" spans="1:6" ht="30">
+      <c r="A15" s="30">
         <v>45307</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="31">
         <v>5</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="31">
         <v>30000</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="34">
+    <row r="16" spans="1:6" ht="30">
+      <c r="A16" s="30">
         <v>45308</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="31">
         <v>11</v>
       </c>
-      <c r="F16" s="35">
+      <c r="F16" s="31">
         <v>70000</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="34">
+    <row r="17" spans="1:6">
+      <c r="A17" s="30">
         <v>45309</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E17" s="31">
         <v>7</v>
       </c>
-      <c r="F17" s="35">
+      <c r="F17" s="31">
         <v>50000</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="34">
+    <row r="18" spans="1:6" ht="30">
+      <c r="A18" s="30">
         <v>45310</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="35">
+      <c r="E18" s="31">
         <v>6</v>
       </c>
-      <c r="F18" s="35">
+      <c r="F18" s="31">
         <v>20000</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="34">
+    <row r="19" spans="1:6" ht="30">
+      <c r="A19" s="30">
         <v>45311</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E19" s="31">
         <v>13</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19" s="31">
         <v>30000</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="34">
+    <row r="20" spans="1:6" ht="30">
+      <c r="A20" s="30">
         <v>45312</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="35">
+      <c r="E20" s="31">
         <v>9</v>
       </c>
-      <c r="F20" s="35">
+      <c r="F20" s="31">
         <v>70000</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="34">
+    <row r="21" spans="1:6">
+      <c r="A21" s="30">
         <v>45313</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="35">
+      <c r="E21" s="31">
         <v>8</v>
       </c>
-      <c r="F21" s="35">
+      <c r="F21" s="31">
         <v>50000</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="34">
+    <row r="22" spans="1:6" ht="30">
+      <c r="A22" s="30">
         <v>45314</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E22" s="31">
         <v>14</v>
       </c>
-      <c r="F22" s="35">
+      <c r="F22" s="31">
         <v>20000</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="34">
+    <row r="23" spans="1:6" ht="30">
+      <c r="A23" s="30">
         <v>45315</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="35">
+      <c r="E23" s="31">
         <v>7</v>
       </c>
-      <c r="F23" s="35">
+      <c r="F23" s="31">
         <v>30000</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="34">
+    <row r="24" spans="1:6" ht="30">
+      <c r="A24" s="30">
         <v>45316</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="35">
+      <c r="E24" s="31">
         <v>10</v>
       </c>
-      <c r="F24" s="35">
+      <c r="F24" s="31">
         <v>70000</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="34">
+    <row r="25" spans="1:6" ht="30">
+      <c r="A25" s="30">
         <v>45317</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="35">
+      <c r="E25" s="31">
         <v>5</v>
       </c>
-      <c r="F25" s="35">
+      <c r="F25" s="31">
         <v>50000</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="34">
+    <row r="26" spans="1:6">
+      <c r="A26" s="30">
         <v>45318</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="35">
+      <c r="E26" s="31">
         <v>8</v>
       </c>
-      <c r="F26" s="35">
+      <c r="F26" s="31">
         <v>20000</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="34">
+    <row r="27" spans="1:6" ht="30">
+      <c r="A27" s="30">
         <v>45319</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="35">
+      <c r="E27" s="31">
         <v>6</v>
       </c>
-      <c r="F27" s="35">
+      <c r="F27" s="31">
         <v>30000</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="34">
+    <row r="28" spans="1:6" ht="30">
+      <c r="A28" s="30">
         <v>45320</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="35">
+      <c r="E28" s="31">
         <v>7</v>
       </c>
-      <c r="F28" s="35">
+      <c r="F28" s="31">
         <v>70000</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="34">
+    <row r="29" spans="1:6">
+      <c r="A29" s="30">
         <v>45323</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="35">
+      <c r="E29" s="31">
         <v>8</v>
       </c>
-      <c r="F29" s="35">
+      <c r="F29" s="31">
         <v>70000</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="34">
+    <row r="30" spans="1:6" ht="30">
+      <c r="A30" s="30">
         <v>45324</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="35">
+      <c r="E30" s="31">
         <v>6</v>
       </c>
-      <c r="F30" s="35">
+      <c r="F30" s="31">
         <v>50000</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="34">
+    <row r="31" spans="1:6" ht="30">
+      <c r="A31" s="30">
         <v>45325</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="35">
+      <c r="E31" s="31">
         <v>10</v>
       </c>
-      <c r="F31" s="35">
+      <c r="F31" s="31">
         <v>20000</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="34">
+    <row r="32" spans="1:6" ht="30">
+      <c r="A32" s="30">
         <v>45326</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="35">
+      <c r="E32" s="31">
         <v>20</v>
       </c>
-      <c r="F32" s="35">
+      <c r="F32" s="31">
         <v>30000</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="34">
+    <row r="33" spans="1:6">
+      <c r="A33" s="30">
         <v>45327</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="35">
+      <c r="E33" s="31">
         <v>4</v>
       </c>
-      <c r="F33" s="35">
+      <c r="F33" s="31">
         <v>70000</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="34">
+    <row r="34" spans="1:6" ht="30">
+      <c r="A34" s="30">
         <v>45328</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="D34" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="35">
+      <c r="E34" s="31">
         <v>9</v>
       </c>
-      <c r="F34" s="35">
+      <c r="F34" s="31">
         <v>50000</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="34">
+    <row r="35" spans="1:6">
+      <c r="A35" s="30">
         <v>45329</v>
       </c>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="35">
+      <c r="E35" s="31">
         <v>5</v>
       </c>
-      <c r="F35" s="35">
+      <c r="F35" s="31">
         <v>20000</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="34">
+    <row r="36" spans="1:6" ht="30">
+      <c r="A36" s="30">
         <v>45330</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="35">
+      <c r="E36" s="31">
         <v>15</v>
       </c>
-      <c r="F36" s="35">
+      <c r="F36" s="31">
         <v>30000</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="34">
+    <row r="37" spans="1:6" ht="30">
+      <c r="A37" s="30">
         <v>45331</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="D37" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="35">
+      <c r="E37" s="31">
         <v>7</v>
       </c>
-      <c r="F37" s="35">
+      <c r="F37" s="31">
         <v>70000</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="34">
+    <row r="38" spans="1:6" ht="30">
+      <c r="A38" s="30">
         <v>45332</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="35">
+      <c r="E38" s="31">
         <v>11</v>
       </c>
-      <c r="F38" s="35">
+      <c r="F38" s="31">
         <v>50000</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="34">
+    <row r="39" spans="1:6" ht="30">
+      <c r="A39" s="30">
         <v>45333</v>
       </c>
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="35">
+      <c r="E39" s="31">
         <v>12</v>
       </c>
-      <c r="F39" s="35">
+      <c r="F39" s="31">
         <v>20000</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="34">
+    <row r="40" spans="1:6" ht="30">
+      <c r="A40" s="30">
         <v>45334</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="35" t="s">
+      <c r="D40" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="35">
+      <c r="E40" s="31">
         <v>10</v>
       </c>
-      <c r="F40" s="35">
+      <c r="F40" s="31">
         <v>30000</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="34">
+    <row r="41" spans="1:6">
+      <c r="A41" s="30">
         <v>45335</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="35">
+      <c r="E41" s="31">
         <v>9</v>
       </c>
-      <c r="F41" s="35">
+      <c r="F41" s="31">
         <v>70000</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="34">
+    <row r="42" spans="1:6" ht="30">
+      <c r="A42" s="30">
         <v>45336</v>
       </c>
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="35">
+      <c r="E42" s="31">
         <v>8</v>
       </c>
-      <c r="F42" s="35">
+      <c r="F42" s="31">
         <v>50000</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="34">
+    <row r="43" spans="1:6" ht="30">
+      <c r="A43" s="30">
         <v>45337</v>
       </c>
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="35" t="s">
+      <c r="D43" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="35">
+      <c r="E43" s="31">
         <v>11</v>
       </c>
-      <c r="F43" s="35">
+      <c r="F43" s="31">
         <v>20000</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="34">
+    <row r="44" spans="1:6" ht="30">
+      <c r="A44" s="30">
         <v>45338</v>
       </c>
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="35" t="s">
+      <c r="D44" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="35">
+      <c r="E44" s="31">
         <v>14</v>
       </c>
-      <c r="F44" s="35">
+      <c r="F44" s="31">
         <v>30000</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="34">
+    <row r="45" spans="1:6" ht="30">
+      <c r="A45" s="30">
         <v>45339</v>
       </c>
-      <c r="B45" s="35" t="s">
+      <c r="B45" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="35" t="s">
+      <c r="D45" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="35">
+      <c r="E45" s="31">
         <v>10</v>
       </c>
-      <c r="F45" s="35">
+      <c r="F45" s="31">
         <v>70000</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="34">
+    <row r="46" spans="1:6" ht="30">
+      <c r="A46" s="30">
         <v>45340</v>
       </c>
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="35" t="s">
+      <c r="D46" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="35">
+      <c r="E46" s="31">
         <v>9</v>
       </c>
-      <c r="F46" s="35">
+      <c r="F46" s="31">
         <v>50000</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="34">
+    <row r="47" spans="1:6" ht="30">
+      <c r="A47" s="30">
         <v>45341</v>
       </c>
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="35" t="s">
+      <c r="D47" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E47" s="35">
+      <c r="E47" s="31">
         <v>13</v>
       </c>
-      <c r="F47" s="35">
+      <c r="F47" s="31">
         <v>20000</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="34">
+    <row r="48" spans="1:6" ht="30">
+      <c r="A48" s="30">
         <v>45342</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D48" s="35" t="s">
+      <c r="D48" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E48" s="35">
+      <c r="E48" s="31">
         <v>8</v>
       </c>
-      <c r="F48" s="35">
+      <c r="F48" s="31">
         <v>30000</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="34">
+    <row r="49" spans="1:6" ht="30">
+      <c r="A49" s="30">
         <v>45343</v>
       </c>
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="35" t="s">
+      <c r="D49" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="35">
+      <c r="E49" s="31">
         <v>12</v>
       </c>
-      <c r="F49" s="35">
+      <c r="F49" s="31">
         <v>70000</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="34">
+    <row r="50" spans="1:6" ht="30">
+      <c r="A50" s="30">
         <v>45344</v>
       </c>
-      <c r="B50" s="35" t="s">
+      <c r="B50" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C50" s="35" t="s">
+      <c r="C50" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="35" t="s">
+      <c r="D50" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="35">
+      <c r="E50" s="31">
         <v>7</v>
       </c>
-      <c r="F50" s="35">
+      <c r="F50" s="31">
         <v>50000</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="34">
+    <row r="51" spans="1:6" ht="30">
+      <c r="A51" s="30">
         <v>45345</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="35" t="s">
+      <c r="C51" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="35" t="s">
+      <c r="D51" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E51" s="35">
+      <c r="E51" s="31">
         <v>9</v>
       </c>
-      <c r="F51" s="35">
+      <c r="F51" s="31">
         <v>20000</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="34">
+    <row r="52" spans="1:6" ht="30">
+      <c r="A52" s="30">
         <v>45346</v>
       </c>
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="35" t="s">
+      <c r="D52" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E52" s="35">
+      <c r="E52" s="31">
         <v>12</v>
       </c>
-      <c r="F52" s="35">
+      <c r="F52" s="31">
         <v>30000</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="34">
+    <row r="53" spans="1:6">
+      <c r="A53" s="30">
         <v>45347</v>
       </c>
-      <c r="B53" s="35" t="s">
+      <c r="B53" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="35" t="s">
+      <c r="D53" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="35">
+      <c r="E53" s="31">
         <v>5</v>
       </c>
-      <c r="F53" s="35">
+      <c r="F53" s="31">
         <v>70000</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="34">
+    <row r="54" spans="1:6" ht="30">
+      <c r="A54" s="30">
         <v>45352</v>
       </c>
-      <c r="B54" s="35" t="s">
+      <c r="B54" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C54" s="35" t="s">
+      <c r="C54" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="35" t="s">
+      <c r="D54" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="35">
+      <c r="E54" s="31">
         <v>12</v>
       </c>
-      <c r="F54" s="35">
+      <c r="F54" s="31">
         <v>70000</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="34">
+    <row r="55" spans="1:6" ht="30">
+      <c r="A55" s="30">
         <v>45353</v>
       </c>
-      <c r="B55" s="35" t="s">
+      <c r="B55" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="35" t="s">
+      <c r="D55" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E55" s="35">
+      <c r="E55" s="31">
         <v>8</v>
       </c>
-      <c r="F55" s="35">
+      <c r="F55" s="31">
         <v>50000</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="34">
+    <row r="56" spans="1:6">
+      <c r="A56" s="30">
         <v>45354</v>
       </c>
-      <c r="B56" s="35" t="s">
+      <c r="B56" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="35" t="s">
+      <c r="C56" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="35" t="s">
+      <c r="D56" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E56" s="35">
+      <c r="E56" s="31">
         <v>7</v>
       </c>
-      <c r="F56" s="35">
+      <c r="F56" s="31">
         <v>20000</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="34">
+    <row r="57" spans="1:6" ht="30">
+      <c r="A57" s="30">
         <v>45355</v>
       </c>
-      <c r="B57" s="35" t="s">
+      <c r="B57" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="35" t="s">
+      <c r="C57" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D57" s="35" t="s">
+      <c r="D57" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E57" s="35">
+      <c r="E57" s="31">
         <v>9</v>
       </c>
-      <c r="F57" s="35">
+      <c r="F57" s="31">
         <v>30000</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="34">
+    <row r="58" spans="1:6">
+      <c r="A58" s="30">
         <v>45356</v>
       </c>
-      <c r="B58" s="35" t="s">
+      <c r="B58" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C58" s="35" t="s">
+      <c r="C58" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D58" s="35" t="s">
+      <c r="D58" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="35">
+      <c r="E58" s="31">
         <v>6</v>
       </c>
-      <c r="F58" s="35">
+      <c r="F58" s="31">
         <v>70000</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="34">
+    <row r="59" spans="1:6" ht="30">
+      <c r="A59" s="30">
         <v>45357</v>
       </c>
-      <c r="B59" s="35" t="s">
+      <c r="B59" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="35" t="s">
+      <c r="C59" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D59" s="35" t="s">
+      <c r="D59" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E59" s="35">
+      <c r="E59" s="31">
         <v>10</v>
       </c>
-      <c r="F59" s="35">
+      <c r="F59" s="31">
         <v>50000</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="34">
+    <row r="60" spans="1:6" ht="30">
+      <c r="A60" s="30">
         <v>45358</v>
       </c>
-      <c r="B60" s="35" t="s">
+      <c r="B60" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="35" t="s">
+      <c r="C60" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D60" s="35" t="s">
+      <c r="D60" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="35">
+      <c r="E60" s="31">
         <v>8</v>
       </c>
-      <c r="F60" s="35">
+      <c r="F60" s="31">
         <v>20000</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="34">
+    <row r="61" spans="1:6" ht="30">
+      <c r="A61" s="30">
         <v>45359</v>
       </c>
-      <c r="B61" s="35" t="s">
+      <c r="B61" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="35" t="s">
+      <c r="C61" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D61" s="35" t="s">
+      <c r="D61" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E61" s="35">
+      <c r="E61" s="31">
         <v>13</v>
       </c>
-      <c r="F61" s="35">
+      <c r="F61" s="31">
         <v>30000</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="34">
+    <row r="62" spans="1:6" ht="30">
+      <c r="A62" s="30">
         <v>45360</v>
       </c>
-      <c r="B62" s="35" t="s">
+      <c r="B62" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C62" s="35" t="s">
+      <c r="C62" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D62" s="35" t="s">
+      <c r="D62" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="35">
+      <c r="E62" s="31">
         <v>9</v>
       </c>
-      <c r="F62" s="35">
+      <c r="F62" s="31">
         <v>70000</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="34">
+    <row r="63" spans="1:6" ht="30">
+      <c r="A63" s="30">
         <v>45361</v>
       </c>
-      <c r="B63" s="35" t="s">
+      <c r="B63" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C63" s="35" t="s">
+      <c r="C63" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D63" s="35" t="s">
+      <c r="D63" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E63" s="35">
+      <c r="E63" s="31">
         <v>5</v>
       </c>
-      <c r="F63" s="35">
+      <c r="F63" s="31">
         <v>50000</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="34">
+    <row r="64" spans="1:6">
+      <c r="A64" s="30">
         <v>45362</v>
       </c>
-      <c r="B64" s="35" t="s">
+      <c r="B64" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C64" s="35" t="s">
+      <c r="C64" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D64" s="35" t="s">
+      <c r="D64" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E64" s="35">
+      <c r="E64" s="31">
         <v>11</v>
       </c>
-      <c r="F64" s="35">
+      <c r="F64" s="31">
         <v>20000</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="34">
+    <row r="65" spans="1:6" ht="30">
+      <c r="A65" s="30">
         <v>45363</v>
       </c>
-      <c r="B65" s="35" t="s">
+      <c r="B65" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C65" s="35" t="s">
+      <c r="C65" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="35" t="s">
+      <c r="D65" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E65" s="35">
+      <c r="E65" s="31">
         <v>14</v>
       </c>
-      <c r="F65" s="35">
+      <c r="F65" s="31">
         <v>30000</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="34">
+    <row r="66" spans="1:6" ht="30">
+      <c r="A66" s="30">
         <v>45364</v>
       </c>
-      <c r="B66" s="35" t="s">
+      <c r="B66" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C66" s="35" t="s">
+      <c r="C66" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D66" s="35" t="s">
+      <c r="D66" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="35">
+      <c r="E66" s="31">
         <v>10</v>
       </c>
-      <c r="F66" s="35">
+      <c r="F66" s="31">
         <v>70000</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="34">
+    <row r="67" spans="1:6">
+      <c r="A67" s="30">
         <v>45365</v>
       </c>
-      <c r="B67" s="35" t="s">
+      <c r="B67" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="35" t="s">
+      <c r="C67" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D67" s="35" t="s">
+      <c r="D67" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E67" s="35">
+      <c r="E67" s="31">
         <v>6</v>
       </c>
-      <c r="F67" s="35">
+      <c r="F67" s="31">
         <v>50000</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="34">
+    <row r="68" spans="1:6" ht="30">
+      <c r="A68" s="30">
         <v>45366</v>
       </c>
-      <c r="B68" s="35" t="s">
+      <c r="B68" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="35" t="s">
+      <c r="C68" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D68" s="35" t="s">
+      <c r="D68" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E68" s="35">
+      <c r="E68" s="31">
         <v>8</v>
       </c>
-      <c r="F68" s="35">
+      <c r="F68" s="31">
         <v>20000</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="34">
+    <row r="69" spans="1:6" ht="30">
+      <c r="A69" s="30">
         <v>45367</v>
       </c>
-      <c r="B69" s="35" t="s">
+      <c r="B69" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C69" s="35" t="s">
+      <c r="C69" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D69" s="35" t="s">
+      <c r="D69" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E69" s="35">
+      <c r="E69" s="31">
         <v>12</v>
       </c>
-      <c r="F69" s="35">
+      <c r="F69" s="31">
         <v>30000</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="34">
+    <row r="70" spans="1:6" ht="30">
+      <c r="A70" s="30">
         <v>45368</v>
       </c>
-      <c r="B70" s="35" t="s">
+      <c r="B70" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C70" s="35" t="s">
+      <c r="C70" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D70" s="35" t="s">
+      <c r="D70" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="35">
+      <c r="E70" s="31">
         <v>9</v>
       </c>
-      <c r="F70" s="35">
+      <c r="F70" s="31">
         <v>70000</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="34">
+    <row r="71" spans="1:6">
+      <c r="A71" s="30">
         <v>45369</v>
       </c>
-      <c r="B71" s="35" t="s">
+      <c r="B71" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C71" s="35" t="s">
+      <c r="C71" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D71" s="35" t="s">
+      <c r="D71" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E71" s="35">
+      <c r="E71" s="31">
         <v>7</v>
       </c>
-      <c r="F71" s="35">
+      <c r="F71" s="31">
         <v>50000</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="34">
+    <row r="72" spans="1:6" ht="30">
+      <c r="A72" s="30">
         <v>45370</v>
       </c>
-      <c r="B72" s="35" t="s">
+      <c r="B72" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C72" s="35" t="s">
+      <c r="C72" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="35" t="s">
+      <c r="D72" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E72" s="35">
+      <c r="E72" s="31">
         <v>14</v>
       </c>
-      <c r="F72" s="35">
+      <c r="F72" s="31">
         <v>20000</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="34">
+    <row r="73" spans="1:6" ht="30">
+      <c r="A73" s="30">
         <v>45371</v>
       </c>
-      <c r="B73" s="35" t="s">
+      <c r="B73" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C73" s="35" t="s">
+      <c r="C73" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D73" s="35" t="s">
+      <c r="D73" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E73" s="35">
+      <c r="E73" s="31">
         <v>8</v>
       </c>
-      <c r="F73" s="35">
+      <c r="F73" s="31">
         <v>30000</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="34">
+    <row r="74" spans="1:6">
+      <c r="A74" s="30">
         <v>45372</v>
       </c>
-      <c r="B74" s="35" t="s">
+      <c r="B74" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C74" s="35" t="s">
+      <c r="C74" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D74" s="35" t="s">
+      <c r="D74" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E74" s="35">
+      <c r="E74" s="31">
         <v>11</v>
       </c>
-      <c r="F74" s="35">
+      <c r="F74" s="31">
         <v>70000</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="34">
+    <row r="75" spans="1:6" ht="30">
+      <c r="A75" s="30">
         <v>45373</v>
       </c>
-      <c r="B75" s="35" t="s">
+      <c r="B75" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C75" s="35" t="s">
+      <c r="C75" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D75" s="35" t="s">
+      <c r="D75" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E75" s="35">
+      <c r="E75" s="31">
         <v>5</v>
       </c>
-      <c r="F75" s="35">
+      <c r="F75" s="31">
         <v>50000</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="34">
+    <row r="76" spans="1:6" ht="30">
+      <c r="A76" s="30">
         <v>45374</v>
       </c>
-      <c r="B76" s="35" t="s">
+      <c r="B76" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C76" s="35" t="s">
+      <c r="C76" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D76" s="35" t="s">
+      <c r="D76" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E76" s="35">
+      <c r="E76" s="31">
         <v>10</v>
       </c>
-      <c r="F76" s="35">
+      <c r="F76" s="31">
         <v>20000</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="34">
+    <row r="77" spans="1:6" ht="30">
+      <c r="A77" s="30">
         <v>45375</v>
       </c>
-      <c r="B77" s="35" t="s">
+      <c r="B77" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C77" s="35" t="s">
+      <c r="C77" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D77" s="35" t="s">
+      <c r="D77" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E77" s="35">
+      <c r="E77" s="31">
         <v>9</v>
       </c>
-      <c r="F77" s="35">
+      <c r="F77" s="31">
         <v>30000</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="34">
+    <row r="78" spans="1:6" ht="30">
+      <c r="A78" s="30">
         <v>45376</v>
       </c>
-      <c r="B78" s="35" t="s">
+      <c r="B78" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C78" s="35" t="s">
+      <c r="C78" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D78" s="35" t="s">
+      <c r="D78" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="35">
+      <c r="E78" s="31">
         <v>10</v>
       </c>
-      <c r="F78" s="35">
+      <c r="F78" s="31">
         <v>70000</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="34">
+    <row r="79" spans="1:6" ht="30">
+      <c r="A79" s="30">
         <v>45381</v>
       </c>
-      <c r="B79" s="35" t="s">
+      <c r="B79" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C79" s="35" t="s">
+      <c r="C79" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D79" s="35" t="s">
+      <c r="D79" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E79" s="35">
+      <c r="E79" s="31">
         <v>5</v>
       </c>
-      <c r="F79" s="35">
+      <c r="F79" s="31">
         <v>30000</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A82" s="65" t="s">
+    <row r="82" spans="1:13">
+      <c r="A82" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B82" s="65"/>
-      <c r="C82" s="65"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="65"/>
-      <c r="F82" s="41"/>
-      <c r="H82" s="66" t="s">
+      <c r="B82" s="60"/>
+      <c r="C82" s="60"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="60"/>
+      <c r="F82" s="37"/>
+      <c r="H82" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="I82" s="66"/>
-      <c r="J82" s="66"/>
-      <c r="K82" s="66"/>
-      <c r="L82" s="66"/>
-      <c r="M82" s="66"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A83" s="65"/>
-      <c r="B83" s="65"/>
-      <c r="C83" s="65"/>
-      <c r="D83" s="65"/>
-      <c r="E83" s="65"/>
-      <c r="F83" s="41"/>
-      <c r="H83" s="66"/>
-      <c r="I83" s="66"/>
-      <c r="J83" s="66"/>
-      <c r="K83" s="66"/>
-      <c r="L83" s="66"/>
-      <c r="M83" s="66"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A84" s="68" t="s">
+      <c r="I82" s="61"/>
+      <c r="J82" s="61"/>
+      <c r="K82" s="61"/>
+      <c r="L82" s="61"/>
+      <c r="M82" s="61"/>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="60"/>
+      <c r="B83" s="60"/>
+      <c r="C83" s="60"/>
+      <c r="D83" s="60"/>
+      <c r="E83" s="60"/>
+      <c r="F83" s="37"/>
+      <c r="H83" s="61"/>
+      <c r="I83" s="61"/>
+      <c r="J83" s="61"/>
+      <c r="K83" s="61"/>
+      <c r="L83" s="61"/>
+      <c r="M83" s="61"/>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="B84" s="68"/>
-      <c r="C84" s="68"/>
-      <c r="D84" s="68"/>
-      <c r="E84" s="68"/>
-      <c r="F84" s="43"/>
-      <c r="H84" s="67" t="s">
+      <c r="B84" s="63"/>
+      <c r="C84" s="63"/>
+      <c r="D84" s="63"/>
+      <c r="E84" s="63"/>
+      <c r="F84" s="38"/>
+      <c r="H84" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="I84" s="67"/>
-      <c r="J84" s="67"/>
-      <c r="K84" s="67"/>
-      <c r="L84" s="67"/>
-      <c r="M84" s="67"/>
-    </row>
-    <row r="85" spans="1:13" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="36" t="s">
+      <c r="I84" s="62"/>
+      <c r="J84" s="62"/>
+      <c r="K84" s="62"/>
+      <c r="L84" s="62"/>
+      <c r="M84" s="62"/>
+    </row>
+    <row r="85" spans="1:13" ht="30">
+      <c r="A85" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="B85" s="36" t="s">
+      <c r="B85" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C85" s="36" t="s">
+      <c r="C85" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D85" s="37" t="s">
+      <c r="D85" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="E85" s="36" t="s">
+      <c r="E85" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F85" s="19"/>
-      <c r="H85" s="36" t="s">
+      <c r="H85" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="I85" s="36" t="s">
+      <c r="I85" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="J85" s="36" t="s">
+      <c r="J85" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="K85" s="37" t="s">
+      <c r="K85" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="L85" s="36" t="s">
+      <c r="L85" s="32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A86" s="26" t="s">
+    <row r="86" spans="1:13">
+      <c r="A86" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B86" s="26" t="s">
+      <c r="B86" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C86" s="26">
+      <c r="C86" s="23">
         <f>SUMIF(D4:D28,"laptop",E4:E28)</f>
         <v>53</v>
       </c>
-      <c r="D86" s="38">
+      <c r="D86" s="34">
         <v>60000</v>
       </c>
-      <c r="E86" s="26">
+      <c r="E86" s="23">
         <f>SUM(C86*D86)</f>
         <v>3180000</v>
       </c>
-      <c r="F86" s="19"/>
-      <c r="H86" s="26" t="s">
+      <c r="H86" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="I86" s="26" t="s">
+      <c r="I86" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="J86" s="19">
+      <c r="J86">
         <f>SUMIF(D29:D53,"laptop",E29:E53)</f>
         <v>55</v>
       </c>
-      <c r="K86" s="44">
+      <c r="K86" s="39">
         <v>60000</v>
       </c>
-      <c r="L86" s="26">
+      <c r="L86" s="23">
         <f>SUM(J86*K86)</f>
         <v>3300000</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A87" s="26" t="s">
+    <row r="87" spans="1:13">
+      <c r="A87" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B87" s="26" t="s">
+      <c r="B87" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C87" s="26">
+      <c r="C87" s="23">
         <f>SUMIF(D5:D29,D9,E5:E29)</f>
         <v>48</v>
       </c>
-      <c r="D87" s="26">
+      <c r="D87" s="23">
         <v>45000</v>
       </c>
-      <c r="E87" s="26">
+      <c r="E87" s="23">
         <f>SUM(C87*D87)</f>
         <v>2160000</v>
       </c>
-      <c r="F87" s="19"/>
-      <c r="H87" s="26" t="s">
+      <c r="H87" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I87" s="26" t="s">
+      <c r="I87" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="J87" s="19">
+      <c r="J87">
         <f>SUMIF(D30:D54,D34,E30:E54)</f>
         <v>50</v>
       </c>
-      <c r="K87" s="26">
+      <c r="K87" s="23">
         <v>45000</v>
       </c>
-      <c r="L87" s="26">
+      <c r="L87" s="23">
         <f>SUM(J87*K87)</f>
         <v>2250000</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A88" s="26" t="s">
+    <row r="88" spans="1:13">
+      <c r="A88" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B88" s="26" t="s">
+      <c r="B88" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C88" s="26">
+      <c r="C88" s="23">
         <f>SUMIF(D6:D30,"laptop",E6:E30)</f>
         <v>56</v>
       </c>
-      <c r="D88" s="26">
+      <c r="D88" s="23">
         <v>26000</v>
       </c>
-      <c r="E88" s="26">
+      <c r="E88" s="23">
         <f>SUM(C88*D88)</f>
         <v>1456000</v>
       </c>
-      <c r="F88" s="19"/>
-      <c r="H88" s="26" t="s">
+      <c r="H88" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="I88" s="26" t="s">
+      <c r="I88" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="J88" s="19">
+      <c r="J88">
         <f>SUMIF(D31:D55,D36,E31:E55)</f>
         <v>79</v>
       </c>
-      <c r="K88" s="26">
+      <c r="K88" s="23">
         <v>26000</v>
       </c>
-      <c r="L88" s="26">
+      <c r="L88" s="23">
         <f>SUM(J88*K88)</f>
         <v>2054000</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A89" s="26" t="s">
+    <row r="89" spans="1:13">
+      <c r="A89" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B89" s="26" t="s">
+      <c r="B89" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C89" s="26">
+      <c r="C89" s="23">
         <f>SUMIF(D7:D28,D14,E7:E28)</f>
         <v>41</v>
       </c>
-      <c r="D89" s="26">
+      <c r="D89" s="23">
         <v>17000</v>
       </c>
-      <c r="E89" s="26">
+      <c r="E89" s="23">
         <f>SUM(C89*D89)</f>
         <v>697000</v>
       </c>
-      <c r="F89" s="19"/>
-      <c r="H89" s="26" t="s">
+      <c r="H89" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I89" s="26" t="s">
+      <c r="I89" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="J89" s="19">
+      <c r="J89">
         <f>SUMIF(D32:D56,D35,E32:E56)</f>
         <v>57</v>
       </c>
-      <c r="K89" s="26">
+      <c r="K89" s="23">
         <v>17000</v>
       </c>
-      <c r="L89" s="26">
+      <c r="L89" s="23">
         <f>SUM(J89*K89)</f>
         <v>969000</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A90" s="26" t="s">
+    <row r="90" spans="1:13">
+      <c r="A90" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B90" s="26" t="s">
+      <c r="B90" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C90" s="26"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="26">
+      <c r="C90" s="23"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23">
         <v>12000</v>
       </c>
-      <c r="F90" s="19"/>
-      <c r="H90" s="26" t="s">
+      <c r="H90" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="I90" s="26" t="s">
+      <c r="I90" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="J90" s="26"/>
-      <c r="K90" s="26"/>
-      <c r="L90" s="26">
+      <c r="J90" s="23"/>
+      <c r="K90" s="23"/>
+      <c r="L90" s="23">
         <v>12000</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A91" s="26" t="s">
+    <row r="91" spans="1:13">
+      <c r="A91" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B91" s="26" t="s">
+      <c r="B91" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C91" s="26"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="26">
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23">
         <v>5000</v>
       </c>
-      <c r="F91" s="19"/>
-      <c r="H91" s="26" t="s">
+      <c r="H91" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="I91" s="26" t="s">
+      <c r="I91" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="J91" s="26"/>
-      <c r="K91" s="26"/>
-      <c r="L91" s="26">
+      <c r="J91" s="23"/>
+      <c r="K91" s="23"/>
+      <c r="L91" s="23">
         <v>5000</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A92" s="26" t="s">
+    <row r="92" spans="1:13">
+      <c r="A92" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B92" s="26" t="s">
+      <c r="B92" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26">
+      <c r="C92" s="23"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="23">
         <v>8000</v>
       </c>
-      <c r="F92" s="19"/>
-      <c r="H92" s="26" t="s">
+      <c r="H92" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="I92" s="26" t="s">
+      <c r="I92" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="J92" s="26"/>
-      <c r="K92" s="26"/>
-      <c r="L92" s="26">
+      <c r="J92" s="23"/>
+      <c r="K92" s="23"/>
+      <c r="L92" s="23">
         <v>8000</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A93" s="26" t="s">
+    <row r="93" spans="1:13">
+      <c r="A93" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B93" s="26" t="s">
+      <c r="B93" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C93" s="26"/>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26">
+      <c r="C93" s="23"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="23">
         <v>1500</v>
       </c>
-      <c r="F93" s="19"/>
-      <c r="H93" s="26" t="s">
+      <c r="H93" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="I93" s="26" t="s">
+      <c r="I93" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="J93" s="26"/>
-      <c r="K93" s="26"/>
-      <c r="L93" s="26">
+      <c r="J93" s="23"/>
+      <c r="K93" s="23"/>
+      <c r="L93" s="23">
         <v>1500</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A94" s="26" t="s">
+    <row r="94" spans="1:13">
+      <c r="A94" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B94" s="26" t="s">
+      <c r="B94" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C94" s="26">
+      <c r="C94" s="23">
         <v>5</v>
       </c>
-      <c r="D94" s="26">
+      <c r="D94" s="23">
         <v>30000</v>
       </c>
-      <c r="E94" s="26">
+      <c r="E94" s="23">
         <f>SUM(C94*D94)</f>
         <v>150000</v>
       </c>
-      <c r="F94" s="19"/>
-      <c r="H94" s="26" t="s">
+      <c r="H94" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I94" s="26" t="s">
+      <c r="I94" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="J94" s="26">
+      <c r="J94" s="23">
         <v>5</v>
       </c>
-      <c r="K94" s="26">
+      <c r="K94" s="23">
         <v>30000</v>
       </c>
-      <c r="L94" s="26">
+      <c r="L94" s="23">
         <f>SUM(J94*K94)</f>
         <v>150000</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A95" s="26" t="s">
+    <row r="95" spans="1:13">
+      <c r="A95" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B95" s="26" t="s">
+      <c r="B95" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C95" s="26"/>
-      <c r="D95" s="26"/>
-      <c r="E95" s="26">
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="23">
         <v>20000</v>
       </c>
-      <c r="F95" s="19"/>
-      <c r="H95" s="26" t="s">
+      <c r="H95" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="I95" s="26" t="s">
+      <c r="I95" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="J95" s="26"/>
-      <c r="K95" s="26"/>
-      <c r="L95" s="26">
+      <c r="J95" s="23"/>
+      <c r="K95" s="23"/>
+      <c r="L95" s="23">
         <v>20000</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A96" s="26" t="s">
+    <row r="96" spans="1:13">
+      <c r="A96" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B96" s="26" t="s">
+      <c r="B96" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C96" s="26"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="26">
+      <c r="C96" s="23"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="23">
         <v>2000</v>
       </c>
-      <c r="F96" s="19"/>
-      <c r="H96" s="26" t="s">
+      <c r="H96" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="I96" s="26" t="s">
+      <c r="I96" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="J96" s="26"/>
-      <c r="K96" s="26"/>
-      <c r="L96" s="26">
+      <c r="J96" s="23"/>
+      <c r="K96" s="23"/>
+      <c r="L96" s="23">
         <v>2000</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A97" s="26" t="s">
+    <row r="97" spans="1:12">
+      <c r="A97" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B97" s="26" t="s">
+      <c r="B97" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C97" s="26"/>
-      <c r="D97" s="26"/>
-      <c r="E97" s="26">
+      <c r="C97" s="23"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="23">
         <v>3000</v>
       </c>
-      <c r="F97" s="19"/>
-      <c r="H97" s="26" t="s">
+      <c r="H97" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="I97" s="26" t="s">
+      <c r="I97" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="J97" s="26"/>
-      <c r="K97" s="26"/>
-      <c r="L97" s="26">
+      <c r="J97" s="23"/>
+      <c r="K97" s="23"/>
+      <c r="L97" s="23">
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A98" s="26" t="s">
+    <row r="98" spans="1:12">
+      <c r="A98" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B98" s="26" t="s">
+      <c r="B98" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C98" s="26"/>
-      <c r="D98" s="26"/>
-      <c r="E98" s="26">
+      <c r="C98" s="23"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="23">
         <v>1000</v>
       </c>
-      <c r="F98" s="19"/>
-      <c r="H98" s="26" t="s">
+      <c r="H98" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="I98" s="26" t="s">
+      <c r="I98" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="J98" s="26"/>
-      <c r="K98" s="26"/>
-      <c r="L98" s="26">
+      <c r="J98" s="23"/>
+      <c r="K98" s="23"/>
+      <c r="L98" s="23">
         <v>1000</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A99" s="26" t="s">
+    <row r="99" spans="1:12">
+      <c r="A99" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B99" s="26"/>
-      <c r="C99" s="26"/>
-      <c r="D99" s="26"/>
-      <c r="E99" s="26">
+      <c r="B99" s="23"/>
+      <c r="C99" s="23"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="23">
         <v>40000</v>
       </c>
-      <c r="F99" s="19"/>
-      <c r="H99" s="26" t="s">
+      <c r="H99" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I99" s="26"/>
-      <c r="J99" s="26"/>
-      <c r="K99" s="26"/>
-      <c r="L99" s="26">
+      <c r="I99" s="23"/>
+      <c r="J99" s="23"/>
+      <c r="K99" s="23"/>
+      <c r="L99" s="23">
         <v>1170000</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A100" s="39" t="s">
+    <row r="100" spans="1:12">
+      <c r="A100" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="B100" s="19"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19"/>
-      <c r="E100" s="40">
+      <c r="E100" s="36">
         <f>SUBTOTAL(9,E86:E99)</f>
         <v>7735500</v>
       </c>
-      <c r="F100" s="19"/>
-      <c r="H100" s="39" t="s">
+      <c r="H100" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="I100" s="19"/>
-      <c r="J100" s="19"/>
-      <c r="K100" s="19"/>
-      <c r="L100" s="40">
+      <c r="L100" s="36">
         <f>SUBTOTAL(9,L86:L99)</f>
         <v>9945500</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A102" s="65" t="s">
+    <row r="102" spans="1:12">
+      <c r="A102" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B102" s="65"/>
-      <c r="C102" s="65"/>
-      <c r="D102" s="65"/>
-      <c r="E102" s="65"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A103" s="65"/>
-      <c r="B103" s="65"/>
-      <c r="C103" s="65"/>
-      <c r="D103" s="65"/>
-      <c r="E103" s="65"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A104" s="68" t="s">
+      <c r="B102" s="60"/>
+      <c r="C102" s="60"/>
+      <c r="D102" s="60"/>
+      <c r="E102" s="60"/>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103" s="60"/>
+      <c r="B103" s="60"/>
+      <c r="C103" s="60"/>
+      <c r="D103" s="60"/>
+      <c r="E103" s="60"/>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="B104" s="68"/>
-      <c r="C104" s="68"/>
-      <c r="D104" s="68"/>
-      <c r="E104" s="68"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B104" s="63"/>
+      <c r="C104" s="63"/>
+      <c r="D104" s="63"/>
+      <c r="E104" s="63"/>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105" t="s">
         <v>57</v>
       </c>
       <c r="B105" t="s">
         <v>58</v>
       </c>
-      <c r="C105" s="19" t="s">
+      <c r="C105" t="s">
         <v>59</v>
       </c>
       <c r="D105" t="s">
@@ -13134,14 +13082,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12">
       <c r="A106" t="s">
         <v>10</v>
       </c>
       <c r="B106" t="s">
         <v>4</v>
       </c>
-      <c r="C106" s="19">
+      <c r="C106">
         <f>SUMIF(D54:D79,"laptop",E54:E79)</f>
         <v>67</v>
       </c>
@@ -13153,14 +13101,14 @@
         <v>4020000</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12">
       <c r="A107" t="s">
         <v>13</v>
       </c>
       <c r="B107" t="s">
         <v>4</v>
       </c>
-      <c r="C107" s="19">
+      <c r="C107">
         <f>SUMIF(D55:D80,D59,E55:E80)</f>
         <v>41</v>
       </c>
@@ -13172,14 +13120,14 @@
         <v>1845000</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12">
       <c r="A108" t="s">
         <v>19</v>
       </c>
       <c r="B108" t="s">
         <v>4</v>
       </c>
-      <c r="C108" s="19">
+      <c r="C108">
         <f>SUMIF(D56:D81,D61,E56:E81)</f>
         <v>70</v>
       </c>
@@ -13191,14 +13139,14 @@
         <v>1820000</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12">
       <c r="A109" t="s">
         <v>16</v>
       </c>
       <c r="B109" t="s">
         <v>4</v>
       </c>
-      <c r="C109" s="19">
+      <c r="C109">
         <f>SUMIF(D54:D79,D68,E54:E79)</f>
         <v>58</v>
       </c>
@@ -13210,62 +13158,58 @@
         <v>986000</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12">
       <c r="A110" t="s">
         <v>61</v>
       </c>
       <c r="B110" t="s">
         <v>62</v>
       </c>
-      <c r="C110" s="19"/>
       <c r="E110">
         <v>12000</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12">
       <c r="A111" t="s">
         <v>63</v>
       </c>
       <c r="B111" t="s">
         <v>64</v>
       </c>
-      <c r="C111" s="19"/>
       <c r="E111">
         <v>5000</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12">
       <c r="A112" t="s">
         <v>65</v>
       </c>
       <c r="B112" t="s">
         <v>62</v>
       </c>
-      <c r="C112" s="19"/>
       <c r="E112">
         <v>8000</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
         <v>66</v>
       </c>
       <c r="B113" t="s">
         <v>67</v>
       </c>
-      <c r="C113" s="19"/>
       <c r="E113">
         <v>1500</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
         <v>68</v>
       </c>
       <c r="B114" t="s">
         <v>69</v>
       </c>
-      <c r="C114" s="19">
+      <c r="C114">
         <v>5</v>
       </c>
       <c r="D114">
@@ -13276,1211 +13220,1206 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
         <v>70</v>
       </c>
       <c r="B115" t="s">
         <v>69</v>
       </c>
-      <c r="C115" s="19"/>
       <c r="E115">
         <v>20000</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
         <v>71</v>
       </c>
       <c r="B116" t="s">
         <v>67</v>
       </c>
-      <c r="C116" s="19"/>
       <c r="E116">
         <v>2000</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
         <v>72</v>
       </c>
       <c r="B117" t="s">
         <v>64</v>
       </c>
-      <c r="C117" s="19"/>
       <c r="E117">
         <v>3000</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
         <v>73</v>
       </c>
       <c r="B118" t="s">
         <v>67</v>
       </c>
-      <c r="C118" s="19"/>
       <c r="E118">
         <v>1000</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
         <v>74</v>
       </c>
-      <c r="C119" s="19"/>
       <c r="E119">
         <v>110000</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
         <v>75</v>
       </c>
-      <c r="C120" s="40"/>
-      <c r="D120" s="40"/>
-      <c r="E120" s="19">
+      <c r="C120" s="36"/>
+      <c r="D120" s="36"/>
+      <c r="E120">
         <f>SUBTOTAL(9,E106:E119)</f>
         <v>8983500</v>
       </c>
-      <c r="F120" s="40"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F120" s="36"/>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" s="42" t="s">
+    <row r="124" spans="1:6">
+      <c r="A124" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B124" s="42" t="s">
+      <c r="B124" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C124" s="42" t="s">
+      <c r="C124" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D124" s="42" t="s">
+      <c r="D124" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E124" s="42" t="s">
+      <c r="E124" s="18" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="42" t="s">
+    <row r="125" spans="1:6">
+      <c r="A125" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B125" s="45">
+      <c r="B125" s="40">
         <v>7854500</v>
       </c>
-      <c r="C125" s="42">
+      <c r="C125" s="18">
         <v>8750000</v>
       </c>
-      <c r="D125" s="42">
+      <c r="D125" s="18">
         <f>SUM(C125-B125)</f>
         <v>895500</v>
       </c>
-      <c r="E125" s="42" t="s">
+      <c r="E125" s="18" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="42" t="s">
+    <row r="126" spans="1:6">
+      <c r="A126" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B126" s="42">
+      <c r="B126" s="18">
         <v>9996500</v>
       </c>
-      <c r="C126" s="42">
+      <c r="C126" s="18">
         <v>9920000</v>
       </c>
-      <c r="D126" s="42">
+      <c r="D126" s="18">
         <f t="shared" ref="D126:D127" si="0">SUM(C126-B126)</f>
         <v>-76500</v>
       </c>
-      <c r="E126" s="42" t="s">
+      <c r="E126" s="18" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="42" t="s">
+    <row r="127" spans="1:6">
+      <c r="A127" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B127" s="42">
+      <c r="B127" s="18">
         <v>8983500</v>
       </c>
-      <c r="C127" s="42">
+      <c r="C127" s="18">
         <v>10000000</v>
       </c>
-      <c r="D127" s="42">
+      <c r="D127" s="18">
         <f t="shared" si="0"/>
         <v>1016500</v>
       </c>
-      <c r="E127" s="42" t="s">
+      <c r="E127" s="18" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132" s="65" t="s">
+    <row r="132" spans="1:7">
+      <c r="A132" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B132" s="65"/>
-      <c r="C132" s="65"/>
-      <c r="D132" s="65"/>
-      <c r="E132" s="65"/>
-      <c r="F132" s="65"/>
-      <c r="G132" s="65"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" s="65"/>
-      <c r="B133" s="65"/>
-      <c r="C133" s="65"/>
-      <c r="D133" s="65"/>
-      <c r="E133" s="65"/>
-      <c r="F133" s="65"/>
-      <c r="G133" s="65"/>
-    </row>
-    <row r="134" spans="1:7" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A134" s="33" t="s">
+      <c r="B132" s="60"/>
+      <c r="C132" s="60"/>
+      <c r="D132" s="60"/>
+      <c r="E132" s="60"/>
+      <c r="F132" s="60"/>
+      <c r="G132" s="60"/>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="60"/>
+      <c r="B133" s="60"/>
+      <c r="C133" s="60"/>
+      <c r="D133" s="60"/>
+      <c r="E133" s="60"/>
+      <c r="F133" s="60"/>
+      <c r="G133" s="60"/>
+    </row>
+    <row r="134" spans="1:7" ht="30">
+      <c r="A134" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B134" s="33" t="s">
+      <c r="B134" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C134" s="33" t="s">
+      <c r="C134" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D134" s="33" t="s">
+      <c r="D134" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E134" s="33" t="s">
+      <c r="E134" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F134" s="33" t="s">
+      <c r="F134" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G134" s="33" t="s">
+      <c r="G134" s="29" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="34">
+    <row r="135" spans="1:7" ht="30" hidden="1">
+      <c r="A135" s="30">
         <v>45296</v>
       </c>
-      <c r="B135" s="35" t="s">
+      <c r="B135" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C135" s="35" t="s">
+      <c r="C135" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D135" s="35" t="s">
+      <c r="D135" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E135" s="35">
+      <c r="E135" s="31">
         <v>5</v>
       </c>
-      <c r="F135" s="35">
+      <c r="F135" s="31">
         <v>70000</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="34">
+    <row r="136" spans="1:7" hidden="1">
+      <c r="A136" s="30">
         <v>45297</v>
       </c>
-      <c r="B136" s="35" t="s">
+      <c r="B136" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C136" s="35" t="s">
+      <c r="C136" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D136" s="35" t="s">
+      <c r="D136" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E136" s="35">
+      <c r="E136" s="31">
         <v>10</v>
       </c>
-      <c r="F136" s="35">
+      <c r="F136" s="31">
         <v>50000</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="34">
+    <row r="137" spans="1:7" ht="30" hidden="1">
+      <c r="A137" s="30">
         <v>45298</v>
       </c>
-      <c r="B137" s="35" t="s">
+      <c r="B137" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C137" s="35" t="s">
+      <c r="C137" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D137" s="35" t="s">
+      <c r="D137" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E137" s="35">
+      <c r="E137" s="31">
         <v>7</v>
       </c>
-      <c r="F137" s="35">
+      <c r="F137" s="31">
         <v>20000</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="34">
+    <row r="138" spans="1:7" ht="30" hidden="1">
+      <c r="A138" s="30">
         <v>45299</v>
       </c>
-      <c r="B138" s="35" t="s">
+      <c r="B138" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C138" s="35" t="s">
+      <c r="C138" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D138" s="35" t="s">
+      <c r="D138" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E138" s="35">
+      <c r="E138" s="31">
         <v>15</v>
       </c>
-      <c r="F138" s="35">
+      <c r="F138" s="31">
         <v>30000</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="34">
+    <row r="139" spans="1:7" hidden="1">
+      <c r="A139" s="30">
         <v>45300</v>
       </c>
-      <c r="B139" s="35" t="s">
+      <c r="B139" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C139" s="35" t="s">
+      <c r="C139" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D139" s="35" t="s">
+      <c r="D139" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E139" s="35">
+      <c r="E139" s="31">
         <v>3</v>
       </c>
-      <c r="F139" s="35">
+      <c r="F139" s="31">
         <v>70000</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="34">
+    <row r="140" spans="1:7" ht="30" hidden="1">
+      <c r="A140" s="30">
         <v>45301</v>
       </c>
-      <c r="B140" s="35" t="s">
+      <c r="B140" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C140" s="35" t="s">
+      <c r="C140" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D140" s="35" t="s">
+      <c r="D140" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E140" s="35">
+      <c r="E140" s="31">
         <v>6</v>
       </c>
-      <c r="F140" s="35">
+      <c r="F140" s="31">
         <v>50000</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="34">
+    <row r="141" spans="1:7" ht="30" hidden="1">
+      <c r="A141" s="30">
         <v>45302</v>
       </c>
-      <c r="B141" s="35" t="s">
+      <c r="B141" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C141" s="35" t="s">
+      <c r="C141" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D141" s="35" t="s">
+      <c r="D141" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E141" s="35">
+      <c r="E141" s="31">
         <v>4</v>
       </c>
-      <c r="F141" s="35">
+      <c r="F141" s="31">
         <v>20000</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="34">
+    <row r="142" spans="1:7" ht="30" hidden="1">
+      <c r="A142" s="30">
         <v>45303</v>
       </c>
-      <c r="B142" s="35" t="s">
+      <c r="B142" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C142" s="35" t="s">
+      <c r="C142" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D142" s="35" t="s">
+      <c r="D142" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E142" s="35">
+      <c r="E142" s="31">
         <v>10</v>
       </c>
-      <c r="F142" s="35">
+      <c r="F142" s="31">
         <v>30000</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="34">
+    <row r="143" spans="1:7" ht="30" hidden="1">
+      <c r="A143" s="30">
         <v>45304</v>
       </c>
-      <c r="B143" s="35" t="s">
+      <c r="B143" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C143" s="35" t="s">
+      <c r="C143" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D143" s="35" t="s">
+      <c r="D143" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E143" s="35">
+      <c r="E143" s="31">
         <v>8</v>
       </c>
-      <c r="F143" s="35">
+      <c r="F143" s="31">
         <v>70000</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="34">
+    <row r="144" spans="1:7" ht="30" hidden="1">
+      <c r="A144" s="30">
         <v>45305</v>
       </c>
-      <c r="B144" s="35" t="s">
+      <c r="B144" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C144" s="35" t="s">
+      <c r="C144" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D144" s="35" t="s">
+      <c r="D144" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E144" s="35">
+      <c r="E144" s="31">
         <v>12</v>
       </c>
-      <c r="F144" s="35">
+      <c r="F144" s="31">
         <v>50000</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="34">
+    <row r="145" spans="1:6" hidden="1">
+      <c r="A145" s="30">
         <v>45306</v>
       </c>
-      <c r="B145" s="35" t="s">
+      <c r="B145" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C145" s="35" t="s">
+      <c r="C145" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D145" s="35" t="s">
+      <c r="D145" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E145" s="35">
+      <c r="E145" s="31">
         <v>9</v>
       </c>
-      <c r="F145" s="35">
+      <c r="F145" s="31">
         <v>20000</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="34">
+    <row r="146" spans="1:6" ht="30" hidden="1">
+      <c r="A146" s="30">
         <v>45307</v>
       </c>
-      <c r="B146" s="35" t="s">
+      <c r="B146" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C146" s="35" t="s">
+      <c r="C146" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D146" s="35" t="s">
+      <c r="D146" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E146" s="35">
+      <c r="E146" s="31">
         <v>5</v>
       </c>
-      <c r="F146" s="35">
+      <c r="F146" s="31">
         <v>30000</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="34">
+    <row r="147" spans="1:6" ht="30" hidden="1">
+      <c r="A147" s="30">
         <v>45308</v>
       </c>
-      <c r="B147" s="35" t="s">
+      <c r="B147" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C147" s="35" t="s">
+      <c r="C147" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D147" s="35" t="s">
+      <c r="D147" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E147" s="35">
+      <c r="E147" s="31">
         <v>11</v>
       </c>
-      <c r="F147" s="35">
+      <c r="F147" s="31">
         <v>70000</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="34">
+    <row r="148" spans="1:6" hidden="1">
+      <c r="A148" s="30">
         <v>45309</v>
       </c>
-      <c r="B148" s="35" t="s">
+      <c r="B148" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C148" s="35" t="s">
+      <c r="C148" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D148" s="35" t="s">
+      <c r="D148" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E148" s="35">
+      <c r="E148" s="31">
         <v>7</v>
       </c>
-      <c r="F148" s="35">
+      <c r="F148" s="31">
         <v>50000</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="34">
+    <row r="149" spans="1:6" ht="30" hidden="1">
+      <c r="A149" s="30">
         <v>45310</v>
       </c>
-      <c r="B149" s="35" t="s">
+      <c r="B149" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C149" s="35" t="s">
+      <c r="C149" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D149" s="35" t="s">
+      <c r="D149" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E149" s="35">
+      <c r="E149" s="31">
         <v>6</v>
       </c>
-      <c r="F149" s="35">
+      <c r="F149" s="31">
         <v>20000</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="34">
+    <row r="150" spans="1:6" ht="30" hidden="1">
+      <c r="A150" s="30">
         <v>45311</v>
       </c>
-      <c r="B150" s="35" t="s">
+      <c r="B150" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C150" s="35" t="s">
+      <c r="C150" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D150" s="35" t="s">
+      <c r="D150" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E150" s="35">
+      <c r="E150" s="31">
         <v>13</v>
       </c>
-      <c r="F150" s="35">
+      <c r="F150" s="31">
         <v>30000</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="34">
+    <row r="151" spans="1:6" ht="30" hidden="1">
+      <c r="A151" s="30">
         <v>45312</v>
       </c>
-      <c r="B151" s="35" t="s">
+      <c r="B151" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C151" s="35" t="s">
+      <c r="C151" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D151" s="35" t="s">
+      <c r="D151" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E151" s="35">
+      <c r="E151" s="31">
         <v>9</v>
       </c>
-      <c r="F151" s="35">
+      <c r="F151" s="31">
         <v>70000</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="34">
+    <row r="152" spans="1:6" hidden="1">
+      <c r="A152" s="30">
         <v>45313</v>
       </c>
-      <c r="B152" s="35" t="s">
+      <c r="B152" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C152" s="35" t="s">
+      <c r="C152" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D152" s="35" t="s">
+      <c r="D152" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E152" s="35">
+      <c r="E152" s="31">
         <v>8</v>
       </c>
-      <c r="F152" s="35">
+      <c r="F152" s="31">
         <v>50000</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="34">
+    <row r="153" spans="1:6" ht="30" hidden="1">
+      <c r="A153" s="30">
         <v>45314</v>
       </c>
-      <c r="B153" s="35" t="s">
+      <c r="B153" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C153" s="35" t="s">
+      <c r="C153" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D153" s="35" t="s">
+      <c r="D153" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E153" s="35">
+      <c r="E153" s="31">
         <v>14</v>
       </c>
-      <c r="F153" s="35">
+      <c r="F153" s="31">
         <v>20000</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="34">
+    <row r="154" spans="1:6" ht="30" hidden="1">
+      <c r="A154" s="30">
         <v>45315</v>
       </c>
-      <c r="B154" s="35" t="s">
+      <c r="B154" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C154" s="35" t="s">
+      <c r="C154" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D154" s="35" t="s">
+      <c r="D154" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E154" s="35">
+      <c r="E154" s="31">
         <v>7</v>
       </c>
-      <c r="F154" s="35">
+      <c r="F154" s="31">
         <v>30000</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="34">
+    <row r="155" spans="1:6" ht="30" hidden="1">
+      <c r="A155" s="30">
         <v>45316</v>
       </c>
-      <c r="B155" s="35" t="s">
+      <c r="B155" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C155" s="35" t="s">
+      <c r="C155" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D155" s="35" t="s">
+      <c r="D155" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E155" s="35">
+      <c r="E155" s="31">
         <v>10</v>
       </c>
-      <c r="F155" s="35">
+      <c r="F155" s="31">
         <v>70000</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="34">
+    <row r="156" spans="1:6" ht="30" hidden="1">
+      <c r="A156" s="30">
         <v>45317</v>
       </c>
-      <c r="B156" s="35" t="s">
+      <c r="B156" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C156" s="35" t="s">
+      <c r="C156" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D156" s="35" t="s">
+      <c r="D156" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E156" s="35">
+      <c r="E156" s="31">
         <v>5</v>
       </c>
-      <c r="F156" s="35">
+      <c r="F156" s="31">
         <v>50000</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="34">
+    <row r="157" spans="1:6" hidden="1">
+      <c r="A157" s="30">
         <v>45318</v>
       </c>
-      <c r="B157" s="35" t="s">
+      <c r="B157" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C157" s="35" t="s">
+      <c r="C157" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D157" s="35" t="s">
+      <c r="D157" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E157" s="35">
+      <c r="E157" s="31">
         <v>8</v>
       </c>
-      <c r="F157" s="35">
+      <c r="F157" s="31">
         <v>20000</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="34">
+    <row r="158" spans="1:6" ht="30" hidden="1">
+      <c r="A158" s="30">
         <v>45319</v>
       </c>
-      <c r="B158" s="35" t="s">
+      <c r="B158" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C158" s="35" t="s">
+      <c r="C158" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D158" s="35" t="s">
+      <c r="D158" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E158" s="35">
+      <c r="E158" s="31">
         <v>6</v>
       </c>
-      <c r="F158" s="35">
+      <c r="F158" s="31">
         <v>30000</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="34">
+    <row r="159" spans="1:6" ht="30" hidden="1">
+      <c r="A159" s="30">
         <v>45320</v>
       </c>
-      <c r="B159" s="35" t="s">
+      <c r="B159" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C159" s="35" t="s">
+      <c r="C159" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D159" s="35" t="s">
+      <c r="D159" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E159" s="35">
+      <c r="E159" s="31">
         <v>7</v>
       </c>
-      <c r="F159" s="35">
+      <c r="F159" s="31">
         <v>70000</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="34">
+    <row r="160" spans="1:6" hidden="1">
+      <c r="A160" s="30">
         <v>45323</v>
       </c>
-      <c r="B160" s="35" t="s">
+      <c r="B160" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C160" s="35" t="s">
+      <c r="C160" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D160" s="35" t="s">
+      <c r="D160" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E160" s="35">
+      <c r="E160" s="31">
         <v>8</v>
       </c>
-      <c r="F160" s="35">
+      <c r="F160" s="31">
         <v>70000</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="34">
+    <row r="161" spans="1:6" ht="30" hidden="1">
+      <c r="A161" s="30">
         <v>45324</v>
       </c>
-      <c r="B161" s="35" t="s">
+      <c r="B161" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C161" s="35" t="s">
+      <c r="C161" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D161" s="35" t="s">
+      <c r="D161" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E161" s="35">
+      <c r="E161" s="31">
         <v>6</v>
       </c>
-      <c r="F161" s="35">
+      <c r="F161" s="31">
         <v>50000</v>
       </c>
     </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="34">
+    <row r="162" spans="1:6" ht="30" hidden="1">
+      <c r="A162" s="30">
         <v>45325</v>
       </c>
-      <c r="B162" s="35" t="s">
+      <c r="B162" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C162" s="35" t="s">
+      <c r="C162" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D162" s="35" t="s">
+      <c r="D162" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E162" s="35">
+      <c r="E162" s="31">
         <v>10</v>
       </c>
-      <c r="F162" s="35">
+      <c r="F162" s="31">
         <v>20000</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="34">
+    <row r="163" spans="1:6" ht="30" hidden="1">
+      <c r="A163" s="30">
         <v>45326</v>
       </c>
-      <c r="B163" s="35" t="s">
+      <c r="B163" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C163" s="35" t="s">
+      <c r="C163" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D163" s="35" t="s">
+      <c r="D163" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E163" s="35">
+      <c r="E163" s="31">
         <v>20</v>
       </c>
-      <c r="F163" s="35">
+      <c r="F163" s="31">
         <v>30000</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="34">
+    <row r="164" spans="1:6" hidden="1">
+      <c r="A164" s="30">
         <v>45327</v>
       </c>
-      <c r="B164" s="35" t="s">
+      <c r="B164" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C164" s="35" t="s">
+      <c r="C164" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D164" s="35" t="s">
+      <c r="D164" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E164" s="35">
+      <c r="E164" s="31">
         <v>4</v>
       </c>
-      <c r="F164" s="35">
+      <c r="F164" s="31">
         <v>70000</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="34">
+    <row r="165" spans="1:6" ht="30" hidden="1">
+      <c r="A165" s="30">
         <v>45328</v>
       </c>
-      <c r="B165" s="35" t="s">
+      <c r="B165" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C165" s="35" t="s">
+      <c r="C165" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D165" s="35" t="s">
+      <c r="D165" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E165" s="35">
+      <c r="E165" s="31">
         <v>9</v>
       </c>
-      <c r="F165" s="35">
+      <c r="F165" s="31">
         <v>50000</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="34">
+    <row r="166" spans="1:6" hidden="1">
+      <c r="A166" s="30">
         <v>45329</v>
       </c>
-      <c r="B166" s="35" t="s">
+      <c r="B166" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C166" s="35" t="s">
+      <c r="C166" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D166" s="35" t="s">
+      <c r="D166" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E166" s="35">
+      <c r="E166" s="31">
         <v>5</v>
       </c>
-      <c r="F166" s="35">
+      <c r="F166" s="31">
         <v>20000</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="34">
+    <row r="167" spans="1:6" ht="30" hidden="1">
+      <c r="A167" s="30">
         <v>45330</v>
       </c>
-      <c r="B167" s="35" t="s">
+      <c r="B167" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C167" s="35" t="s">
+      <c r="C167" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D167" s="35" t="s">
+      <c r="D167" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E167" s="35">
+      <c r="E167" s="31">
         <v>15</v>
       </c>
-      <c r="F167" s="35">
+      <c r="F167" s="31">
         <v>30000</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="34">
+    <row r="168" spans="1:6" ht="30" hidden="1">
+      <c r="A168" s="30">
         <v>45331</v>
       </c>
-      <c r="B168" s="35" t="s">
+      <c r="B168" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C168" s="35" t="s">
+      <c r="C168" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D168" s="35" t="s">
+      <c r="D168" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E168" s="35">
+      <c r="E168" s="31">
         <v>7</v>
       </c>
-      <c r="F168" s="35">
+      <c r="F168" s="31">
         <v>70000</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="34">
+    <row r="169" spans="1:6" ht="30" hidden="1">
+      <c r="A169" s="30">
         <v>45332</v>
       </c>
-      <c r="B169" s="35" t="s">
+      <c r="B169" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C169" s="35" t="s">
+      <c r="C169" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D169" s="35" t="s">
+      <c r="D169" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E169" s="35">
+      <c r="E169" s="31">
         <v>11</v>
       </c>
-      <c r="F169" s="35">
+      <c r="F169" s="31">
         <v>50000</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="34">
+    <row r="170" spans="1:6" ht="30" hidden="1">
+      <c r="A170" s="30">
         <v>45333</v>
       </c>
-      <c r="B170" s="35" t="s">
+      <c r="B170" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C170" s="35" t="s">
+      <c r="C170" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D170" s="35" t="s">
+      <c r="D170" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E170" s="35">
+      <c r="E170" s="31">
         <v>12</v>
       </c>
-      <c r="F170" s="35">
+      <c r="F170" s="31">
         <v>20000</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="34">
+    <row r="171" spans="1:6" ht="30" hidden="1">
+      <c r="A171" s="30">
         <v>45334</v>
       </c>
-      <c r="B171" s="35" t="s">
+      <c r="B171" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C171" s="35" t="s">
+      <c r="C171" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D171" s="35" t="s">
+      <c r="D171" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E171" s="35">
+      <c r="E171" s="31">
         <v>10</v>
       </c>
-      <c r="F171" s="35">
+      <c r="F171" s="31">
         <v>30000</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="34">
+    <row r="172" spans="1:6" hidden="1">
+      <c r="A172" s="30">
         <v>45335</v>
       </c>
-      <c r="B172" s="35" t="s">
+      <c r="B172" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C172" s="35" t="s">
+      <c r="C172" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D172" s="35" t="s">
+      <c r="D172" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E172" s="35">
+      <c r="E172" s="31">
         <v>9</v>
       </c>
-      <c r="F172" s="35">
+      <c r="F172" s="31">
         <v>70000</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="34">
+    <row r="173" spans="1:6" ht="30" hidden="1">
+      <c r="A173" s="30">
         <v>45336</v>
       </c>
-      <c r="B173" s="35" t="s">
+      <c r="B173" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C173" s="35" t="s">
+      <c r="C173" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D173" s="35" t="s">
+      <c r="D173" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E173" s="35">
+      <c r="E173" s="31">
         <v>8</v>
       </c>
-      <c r="F173" s="35">
+      <c r="F173" s="31">
         <v>50000</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="34">
+    <row r="174" spans="1:6" ht="30" hidden="1">
+      <c r="A174" s="30">
         <v>45337</v>
       </c>
-      <c r="B174" s="35" t="s">
+      <c r="B174" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C174" s="35" t="s">
+      <c r="C174" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D174" s="35" t="s">
+      <c r="D174" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E174" s="35">
+      <c r="E174" s="31">
         <v>11</v>
       </c>
-      <c r="F174" s="35">
+      <c r="F174" s="31">
         <v>20000</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="34">
+    <row r="175" spans="1:6" ht="30" hidden="1">
+      <c r="A175" s="30">
         <v>45338</v>
       </c>
-      <c r="B175" s="35" t="s">
+      <c r="B175" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C175" s="35" t="s">
+      <c r="C175" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D175" s="35" t="s">
+      <c r="D175" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E175" s="35">
+      <c r="E175" s="31">
         <v>14</v>
       </c>
-      <c r="F175" s="35">
+      <c r="F175" s="31">
         <v>30000</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="34">
+    <row r="176" spans="1:6" ht="30" hidden="1">
+      <c r="A176" s="30">
         <v>45339</v>
       </c>
-      <c r="B176" s="35" t="s">
+      <c r="B176" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C176" s="35" t="s">
+      <c r="C176" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D176" s="35" t="s">
+      <c r="D176" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E176" s="35">
+      <c r="E176" s="31">
         <v>10</v>
       </c>
-      <c r="F176" s="35">
+      <c r="F176" s="31">
         <v>70000</v>
       </c>
     </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="34">
+    <row r="177" spans="1:7" ht="30" hidden="1">
+      <c r="A177" s="30">
         <v>45340</v>
       </c>
-      <c r="B177" s="35" t="s">
+      <c r="B177" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C177" s="35" t="s">
+      <c r="C177" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D177" s="35" t="s">
+      <c r="D177" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E177" s="35">
+      <c r="E177" s="31">
         <v>9</v>
       </c>
-      <c r="F177" s="35">
+      <c r="F177" s="31">
         <v>50000</v>
       </c>
     </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="34">
+    <row r="178" spans="1:7" ht="30" hidden="1">
+      <c r="A178" s="30">
         <v>45341</v>
       </c>
-      <c r="B178" s="35" t="s">
+      <c r="B178" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C178" s="35" t="s">
+      <c r="C178" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D178" s="35" t="s">
+      <c r="D178" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E178" s="35">
+      <c r="E178" s="31">
         <v>13</v>
       </c>
-      <c r="F178" s="35">
+      <c r="F178" s="31">
         <v>20000</v>
       </c>
     </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="34">
+    <row r="179" spans="1:7" ht="30" hidden="1">
+      <c r="A179" s="30">
         <v>45342</v>
       </c>
-      <c r="B179" s="35" t="s">
+      <c r="B179" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C179" s="35" t="s">
+      <c r="C179" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D179" s="35" t="s">
+      <c r="D179" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E179" s="35">
+      <c r="E179" s="31">
         <v>8</v>
       </c>
-      <c r="F179" s="35">
+      <c r="F179" s="31">
         <v>30000</v>
       </c>
     </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="34">
+    <row r="180" spans="1:7" ht="30" hidden="1">
+      <c r="A180" s="30">
         <v>45343</v>
       </c>
-      <c r="B180" s="35" t="s">
+      <c r="B180" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C180" s="35" t="s">
+      <c r="C180" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D180" s="35" t="s">
+      <c r="D180" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E180" s="35">
+      <c r="E180" s="31">
         <v>12</v>
       </c>
-      <c r="F180" s="35">
+      <c r="F180" s="31">
         <v>70000</v>
       </c>
     </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="34">
+    <row r="181" spans="1:7" ht="30" hidden="1">
+      <c r="A181" s="30">
         <v>45344</v>
       </c>
-      <c r="B181" s="35" t="s">
+      <c r="B181" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C181" s="35" t="s">
+      <c r="C181" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D181" s="35" t="s">
+      <c r="D181" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E181" s="35">
+      <c r="E181" s="31">
         <v>7</v>
       </c>
-      <c r="F181" s="35">
+      <c r="F181" s="31">
         <v>50000</v>
       </c>
     </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="34">
+    <row r="182" spans="1:7" ht="30" hidden="1">
+      <c r="A182" s="30">
         <v>45345</v>
       </c>
-      <c r="B182" s="35" t="s">
+      <c r="B182" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C182" s="35" t="s">
+      <c r="C182" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D182" s="35" t="s">
+      <c r="D182" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E182" s="35">
+      <c r="E182" s="31">
         <v>9</v>
       </c>
-      <c r="F182" s="35">
+      <c r="F182" s="31">
         <v>20000</v>
       </c>
     </row>
-    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="34">
+    <row r="183" spans="1:7" ht="30" hidden="1">
+      <c r="A183" s="30">
         <v>45346</v>
       </c>
-      <c r="B183" s="35" t="s">
+      <c r="B183" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C183" s="35" t="s">
+      <c r="C183" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D183" s="35" t="s">
+      <c r="D183" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E183" s="35">
+      <c r="E183" s="31">
         <v>12</v>
       </c>
-      <c r="F183" s="35">
+      <c r="F183" s="31">
         <v>30000</v>
       </c>
     </row>
-    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="34">
+    <row r="184" spans="1:7" hidden="1">
+      <c r="A184" s="30">
         <v>45347</v>
       </c>
-      <c r="B184" s="35" t="s">
+      <c r="B184" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C184" s="35" t="s">
+      <c r="C184" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D184" s="35" t="s">
+      <c r="D184" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E184" s="35">
+      <c r="E184" s="31">
         <v>5</v>
       </c>
-      <c r="F184" s="35">
+      <c r="F184" s="31">
         <v>70000</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A185" s="34">
+    <row r="185" spans="1:7" ht="30">
+      <c r="A185" s="30">
         <v>45352</v>
       </c>
-      <c r="B185" s="35" t="s">
+      <c r="B185" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C185" s="35" t="s">
+      <c r="C185" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D185" s="35" t="s">
+      <c r="D185" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E185" s="35">
+      <c r="E185" s="31">
         <v>12</v>
       </c>
-      <c r="F185" s="35">
+      <c r="F185" s="31">
         <v>70000</v>
       </c>
       <c r="G185">
@@ -14488,602 +14427,602 @@
         <v>840000</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A186" s="34">
+    <row r="186" spans="1:7" ht="30">
+      <c r="A186" s="30">
         <v>45353</v>
       </c>
-      <c r="B186" s="35" t="s">
+      <c r="B186" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C186" s="35" t="s">
+      <c r="C186" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D186" s="35" t="s">
+      <c r="D186" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E186" s="35">
+      <c r="E186" s="31">
         <v>8</v>
       </c>
-      <c r="F186" s="35">
+      <c r="F186" s="31">
         <v>50000</v>
       </c>
-      <c r="G186" s="19">
+      <c r="G186">
         <f t="shared" ref="G186:G210" si="1">E186*F186</f>
         <v>400000</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A187" s="34">
+    <row r="187" spans="1:7">
+      <c r="A187" s="30">
         <v>45354</v>
       </c>
-      <c r="B187" s="35" t="s">
+      <c r="B187" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C187" s="35" t="s">
+      <c r="C187" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D187" s="35" t="s">
+      <c r="D187" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E187" s="35">
+      <c r="E187" s="31">
         <v>7</v>
       </c>
-      <c r="F187" s="35">
+      <c r="F187" s="31">
         <v>20000</v>
       </c>
-      <c r="G187" s="19">
+      <c r="G187">
         <f t="shared" si="1"/>
         <v>140000</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A188" s="34">
+    <row r="188" spans="1:7" ht="30">
+      <c r="A188" s="30">
         <v>45355</v>
       </c>
-      <c r="B188" s="35" t="s">
+      <c r="B188" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C188" s="35" t="s">
+      <c r="C188" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D188" s="35" t="s">
+      <c r="D188" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E188" s="35">
+      <c r="E188" s="31">
         <v>9</v>
       </c>
-      <c r="F188" s="35">
+      <c r="F188" s="31">
         <v>30000</v>
       </c>
-      <c r="G188" s="19">
+      <c r="G188">
         <f t="shared" si="1"/>
         <v>270000</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A189" s="34">
+    <row r="189" spans="1:7">
+      <c r="A189" s="30">
         <v>45356</v>
       </c>
-      <c r="B189" s="35" t="s">
+      <c r="B189" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C189" s="35" t="s">
+      <c r="C189" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D189" s="35" t="s">
+      <c r="D189" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E189" s="35">
+      <c r="E189" s="31">
         <v>6</v>
       </c>
-      <c r="F189" s="35">
+      <c r="F189" s="31">
         <v>70000</v>
       </c>
-      <c r="G189" s="19">
+      <c r="G189">
         <f t="shared" si="1"/>
         <v>420000</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A190" s="34">
+    <row r="190" spans="1:7" ht="30">
+      <c r="A190" s="30">
         <v>45357</v>
       </c>
-      <c r="B190" s="35" t="s">
+      <c r="B190" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C190" s="35" t="s">
+      <c r="C190" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D190" s="35" t="s">
+      <c r="D190" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E190" s="35">
+      <c r="E190" s="31">
         <v>10</v>
       </c>
-      <c r="F190" s="35">
+      <c r="F190" s="31">
         <v>50000</v>
       </c>
-      <c r="G190" s="19">
+      <c r="G190">
         <f t="shared" si="1"/>
         <v>500000</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A191" s="34">
+    <row r="191" spans="1:7" ht="30">
+      <c r="A191" s="30">
         <v>45358</v>
       </c>
-      <c r="B191" s="35" t="s">
+      <c r="B191" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C191" s="35" t="s">
+      <c r="C191" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D191" s="35" t="s">
+      <c r="D191" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E191" s="35">
+      <c r="E191" s="31">
         <v>8</v>
       </c>
-      <c r="F191" s="35">
+      <c r="F191" s="31">
         <v>20000</v>
       </c>
-      <c r="G191" s="19">
+      <c r="G191">
         <f t="shared" si="1"/>
         <v>160000</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A192" s="34">
+    <row r="192" spans="1:7" ht="30">
+      <c r="A192" s="30">
         <v>45359</v>
       </c>
-      <c r="B192" s="35" t="s">
+      <c r="B192" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C192" s="35" t="s">
+      <c r="C192" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D192" s="35" t="s">
+      <c r="D192" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E192" s="35">
+      <c r="E192" s="31">
         <v>13</v>
       </c>
-      <c r="F192" s="35">
+      <c r="F192" s="31">
         <v>30000</v>
       </c>
-      <c r="G192" s="19">
+      <c r="G192">
         <f t="shared" si="1"/>
         <v>390000</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A193" s="34">
+    <row r="193" spans="1:7" ht="30">
+      <c r="A193" s="30">
         <v>45360</v>
       </c>
-      <c r="B193" s="35" t="s">
+      <c r="B193" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C193" s="35" t="s">
+      <c r="C193" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D193" s="35" t="s">
+      <c r="D193" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E193" s="35">
+      <c r="E193" s="31">
         <v>9</v>
       </c>
-      <c r="F193" s="35">
+      <c r="F193" s="31">
         <v>70000</v>
       </c>
-      <c r="G193" s="19">
+      <c r="G193">
         <f t="shared" si="1"/>
         <v>630000</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A194" s="34">
+    <row r="194" spans="1:7" ht="30">
+      <c r="A194" s="30">
         <v>45361</v>
       </c>
-      <c r="B194" s="35" t="s">
+      <c r="B194" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C194" s="35" t="s">
+      <c r="C194" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D194" s="35" t="s">
+      <c r="D194" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E194" s="35">
+      <c r="E194" s="31">
         <v>5</v>
       </c>
-      <c r="F194" s="35">
+      <c r="F194" s="31">
         <v>50000</v>
       </c>
-      <c r="G194" s="19">
+      <c r="G194">
         <f t="shared" si="1"/>
         <v>250000</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A195" s="34">
+    <row r="195" spans="1:7">
+      <c r="A195" s="30">
         <v>45362</v>
       </c>
-      <c r="B195" s="35" t="s">
+      <c r="B195" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C195" s="35" t="s">
+      <c r="C195" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D195" s="35" t="s">
+      <c r="D195" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E195" s="35">
+      <c r="E195" s="31">
         <v>11</v>
       </c>
-      <c r="F195" s="35">
+      <c r="F195" s="31">
         <v>20000</v>
       </c>
-      <c r="G195" s="19">
+      <c r="G195">
         <f t="shared" si="1"/>
         <v>220000</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A196" s="34">
+    <row r="196" spans="1:7" ht="30">
+      <c r="A196" s="30">
         <v>45363</v>
       </c>
-      <c r="B196" s="35" t="s">
+      <c r="B196" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C196" s="35" t="s">
+      <c r="C196" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D196" s="35" t="s">
+      <c r="D196" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E196" s="35">
+      <c r="E196" s="31">
         <v>14</v>
       </c>
-      <c r="F196" s="35">
+      <c r="F196" s="31">
         <v>30000</v>
       </c>
-      <c r="G196" s="19">
+      <c r="G196">
         <f t="shared" si="1"/>
         <v>420000</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A197" s="34">
+    <row r="197" spans="1:7" ht="30">
+      <c r="A197" s="30">
         <v>45364</v>
       </c>
-      <c r="B197" s="35" t="s">
+      <c r="B197" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C197" s="35" t="s">
+      <c r="C197" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D197" s="35" t="s">
+      <c r="D197" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E197" s="35">
+      <c r="E197" s="31">
         <v>10</v>
       </c>
-      <c r="F197" s="35">
+      <c r="F197" s="31">
         <v>70000</v>
       </c>
-      <c r="G197" s="19">
+      <c r="G197">
         <f t="shared" si="1"/>
         <v>700000</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A198" s="34">
+    <row r="198" spans="1:7">
+      <c r="A198" s="30">
         <v>45365</v>
       </c>
-      <c r="B198" s="35" t="s">
+      <c r="B198" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C198" s="35" t="s">
+      <c r="C198" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D198" s="35" t="s">
+      <c r="D198" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E198" s="35">
+      <c r="E198" s="31">
         <v>6</v>
       </c>
-      <c r="F198" s="35">
+      <c r="F198" s="31">
         <v>50000</v>
       </c>
-      <c r="G198" s="19">
+      <c r="G198">
         <f t="shared" si="1"/>
         <v>300000</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A199" s="34">
+    <row r="199" spans="1:7" ht="30">
+      <c r="A199" s="30">
         <v>45366</v>
       </c>
-      <c r="B199" s="35" t="s">
+      <c r="B199" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C199" s="35" t="s">
+      <c r="C199" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D199" s="35" t="s">
+      <c r="D199" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E199" s="35">
+      <c r="E199" s="31">
         <v>8</v>
       </c>
-      <c r="F199" s="35">
+      <c r="F199" s="31">
         <v>20000</v>
       </c>
-      <c r="G199" s="19">
+      <c r="G199">
         <f t="shared" si="1"/>
         <v>160000</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A200" s="34">
+    <row r="200" spans="1:7" ht="30">
+      <c r="A200" s="30">
         <v>45367</v>
       </c>
-      <c r="B200" s="35" t="s">
+      <c r="B200" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C200" s="35" t="s">
+      <c r="C200" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D200" s="35" t="s">
+      <c r="D200" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E200" s="35">
+      <c r="E200" s="31">
         <v>12</v>
       </c>
-      <c r="F200" s="35">
+      <c r="F200" s="31">
         <v>30000</v>
       </c>
-      <c r="G200" s="19">
+      <c r="G200">
         <f t="shared" si="1"/>
         <v>360000</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A201" s="34">
+    <row r="201" spans="1:7" ht="30">
+      <c r="A201" s="30">
         <v>45368</v>
       </c>
-      <c r="B201" s="35" t="s">
+      <c r="B201" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C201" s="35" t="s">
+      <c r="C201" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D201" s="35" t="s">
+      <c r="D201" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E201" s="35">
+      <c r="E201" s="31">
         <v>9</v>
       </c>
-      <c r="F201" s="35">
+      <c r="F201" s="31">
         <v>70000</v>
       </c>
-      <c r="G201" s="19">
+      <c r="G201">
         <f t="shared" si="1"/>
         <v>630000</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A202" s="34">
+    <row r="202" spans="1:7">
+      <c r="A202" s="30">
         <v>45369</v>
       </c>
-      <c r="B202" s="35" t="s">
+      <c r="B202" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C202" s="35" t="s">
+      <c r="C202" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D202" s="35" t="s">
+      <c r="D202" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E202" s="35">
+      <c r="E202" s="31">
         <v>7</v>
       </c>
-      <c r="F202" s="35">
+      <c r="F202" s="31">
         <v>50000</v>
       </c>
-      <c r="G202" s="19">
+      <c r="G202">
         <f t="shared" si="1"/>
         <v>350000</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A203" s="34">
+    <row r="203" spans="1:7" ht="30">
+      <c r="A203" s="30">
         <v>45370</v>
       </c>
-      <c r="B203" s="35" t="s">
+      <c r="B203" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C203" s="35" t="s">
+      <c r="C203" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D203" s="35" t="s">
+      <c r="D203" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E203" s="35">
+      <c r="E203" s="31">
         <v>14</v>
       </c>
-      <c r="F203" s="35">
+      <c r="F203" s="31">
         <v>20000</v>
       </c>
-      <c r="G203" s="19">
+      <c r="G203">
         <f t="shared" si="1"/>
         <v>280000</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A204" s="34">
+    <row r="204" spans="1:7" ht="30">
+      <c r="A204" s="30">
         <v>45371</v>
       </c>
-      <c r="B204" s="35" t="s">
+      <c r="B204" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C204" s="35" t="s">
+      <c r="C204" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D204" s="35" t="s">
+      <c r="D204" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E204" s="35">
+      <c r="E204" s="31">
         <v>8</v>
       </c>
-      <c r="F204" s="35">
+      <c r="F204" s="31">
         <v>30000</v>
       </c>
-      <c r="G204" s="19">
+      <c r="G204">
         <f t="shared" si="1"/>
         <v>240000</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A205" s="34">
+    <row r="205" spans="1:7">
+      <c r="A205" s="30">
         <v>45372</v>
       </c>
-      <c r="B205" s="35" t="s">
+      <c r="B205" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C205" s="35" t="s">
+      <c r="C205" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D205" s="35" t="s">
+      <c r="D205" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E205" s="35">
+      <c r="E205" s="31">
         <v>11</v>
       </c>
-      <c r="F205" s="35">
+      <c r="F205" s="31">
         <v>70000</v>
       </c>
-      <c r="G205" s="19">
+      <c r="G205">
         <f t="shared" si="1"/>
         <v>770000</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A206" s="34">
+    <row r="206" spans="1:7" ht="30">
+      <c r="A206" s="30">
         <v>45373</v>
       </c>
-      <c r="B206" s="35" t="s">
+      <c r="B206" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C206" s="35" t="s">
+      <c r="C206" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D206" s="35" t="s">
+      <c r="D206" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E206" s="35">
+      <c r="E206" s="31">
         <v>5</v>
       </c>
-      <c r="F206" s="35">
+      <c r="F206" s="31">
         <v>50000</v>
       </c>
-      <c r="G206" s="19">
+      <c r="G206">
         <f t="shared" si="1"/>
         <v>250000</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A207" s="34">
+    <row r="207" spans="1:7" ht="30">
+      <c r="A207" s="30">
         <v>45374</v>
       </c>
-      <c r="B207" s="35" t="s">
+      <c r="B207" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C207" s="35" t="s">
+      <c r="C207" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D207" s="35" t="s">
+      <c r="D207" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E207" s="35">
+      <c r="E207" s="31">
         <v>10</v>
       </c>
-      <c r="F207" s="35">
+      <c r="F207" s="31">
         <v>20000</v>
       </c>
-      <c r="G207" s="19">
+      <c r="G207">
         <f t="shared" si="1"/>
         <v>200000</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A208" s="34">
+    <row r="208" spans="1:7" ht="30">
+      <c r="A208" s="30">
         <v>45375</v>
       </c>
-      <c r="B208" s="35" t="s">
+      <c r="B208" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C208" s="35" t="s">
+      <c r="C208" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D208" s="35" t="s">
+      <c r="D208" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E208" s="35">
+      <c r="E208" s="31">
         <v>9</v>
       </c>
-      <c r="F208" s="35">
+      <c r="F208" s="31">
         <v>30000</v>
       </c>
-      <c r="G208" s="19">
+      <c r="G208">
         <f t="shared" si="1"/>
         <v>270000</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A209" s="34">
+    <row r="209" spans="1:7" ht="30">
+      <c r="A209" s="30">
         <v>45376</v>
       </c>
-      <c r="B209" s="35" t="s">
+      <c r="B209" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C209" s="35" t="s">
+      <c r="C209" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D209" s="35" t="s">
+      <c r="D209" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E209" s="35">
+      <c r="E209" s="31">
         <v>10</v>
       </c>
-      <c r="F209" s="35">
+      <c r="F209" s="31">
         <v>70000</v>
       </c>
-      <c r="G209" s="19">
+      <c r="G209">
         <f t="shared" si="1"/>
         <v>700000</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A210" s="34">
+    <row r="210" spans="1:7" ht="30">
+      <c r="A210" s="30">
         <v>45381</v>
       </c>
-      <c r="B210" s="35" t="s">
+      <c r="B210" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C210" s="35" t="s">
+      <c r="C210" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D210" s="35" t="s">
+      <c r="D210" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E210" s="35">
+      <c r="E210" s="31">
         <v>5</v>
       </c>
-      <c r="F210" s="35">
+      <c r="F210" s="31">
         <v>30000</v>
       </c>
-      <c r="G210" s="19">
+      <c r="G210">
         <f t="shared" si="1"/>
         <v>150000</v>
       </c>
@@ -15122,216 +15061,216 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.81640625" customWidth="1"/>
-    <col min="3" max="3" width="9.68359375" customWidth="1"/>
-    <col min="4" max="4" width="10.35546875" customWidth="1"/>
-    <col min="5" max="5" width="10.76171875" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-    </row>
-    <row r="4" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="71" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+    </row>
+    <row r="4" spans="1:7" ht="25.5" customHeight="1">
+      <c r="B4" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-    </row>
-    <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="46" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+    </row>
+    <row r="5" spans="1:7" ht="22.5" customHeight="1">
+      <c r="B5" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="41" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="36" t="s">
+    <row r="6" spans="1:7">
+      <c r="B6" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="32">
         <v>9288500</v>
       </c>
-      <c r="D6" s="36">
-        <v>8750000</v>
-      </c>
-      <c r="E6" s="36">
+      <c r="D6" s="32">
+        <v>12750000</v>
+      </c>
+      <c r="E6" s="32">
         <v>-538500</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="36" t="s">
+    <row r="7" spans="1:7">
+      <c r="B7" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="32">
         <v>9744300</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="32">
         <v>9920000</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="32">
         <v>175700</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="36" t="s">
+    <row r="8" spans="1:7">
+      <c r="B8" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="32">
         <v>8904700</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="32">
         <v>10000000</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="32">
         <v>1095300</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="36" t="s">
+    <row r="9" spans="1:7">
+      <c r="B9" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="32">
         <v>7345200</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="32">
         <v>7957400</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="32">
         <v>612200</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="36" t="s">
+    <row r="10" spans="1:7">
+      <c r="B10" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="32">
         <v>8987000</v>
       </c>
-      <c r="D10" s="36">
-        <v>9876500</v>
-      </c>
-      <c r="E10" s="36">
+      <c r="D10" s="32">
+        <v>4154121</v>
+      </c>
+      <c r="E10" s="32">
         <v>889500</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="36" t="s">
+    <row r="11" spans="1:7">
+      <c r="B11" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="32">
         <v>5215400</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="32">
         <v>5164500</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="32">
         <v>-50900</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="36" t="s">
+    <row r="12" spans="1:7">
+      <c r="B12" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="32">
         <v>9976500</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="32">
         <v>11543600</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="32">
         <v>1567100</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="36" t="s">
+    <row r="13" spans="1:7">
+      <c r="B13" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="32">
         <v>7976700</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="32">
         <v>8087900</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="32">
         <v>111200</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="36" t="s">
+    <row r="14" spans="1:7">
+      <c r="B14" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="32">
         <v>9879000</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="32">
         <v>9969800</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="32">
         <v>90800</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="36" t="s">
+    <row r="15" spans="1:7">
+      <c r="B15" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="32">
         <v>6234800</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="32">
         <v>7024000</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="32">
         <v>789200</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="36" t="s">
+    <row r="16" spans="1:7">
+      <c r="B16" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="32">
         <v>4534800</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="32">
         <v>4809300</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="32">
         <v>274500</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="36" t="s">
+    <row r="17" spans="2:5">
+      <c r="B17" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="32">
         <v>8348700</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="32">
         <v>8834800</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="32">
         <v>486100</v>
       </c>
     </row>
